--- a/src/data/raw/ZENSARTECH.NS_data.xlsx
+++ b/src/data/raw/ZENSARTECH.NS_data.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F490"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5336,4906 +5336,6 @@
         <v>1288502</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B246" t="n">
-        <v>599.697509765625</v>
-      </c>
-      <c r="C246" t="n">
-        <v>618.907199572895</v>
-      </c>
-      <c r="D246" t="n">
-        <v>597.6728514161879</v>
-      </c>
-      <c r="E246" t="n">
-        <v>605.8209152437615</v>
-      </c>
-      <c r="F246" t="n">
-        <v>1269873</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>45293</v>
-      </c>
-      <c r="B247" t="n">
-        <v>584.3889770507812</v>
-      </c>
-      <c r="C247" t="n">
-        <v>606.6603375831007</v>
-      </c>
-      <c r="D247" t="n">
-        <v>579.7470381136021</v>
-      </c>
-      <c r="E247" t="n">
-        <v>603.055412807811</v>
-      </c>
-      <c r="F247" t="n">
-        <v>1627720</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B248" t="n">
-        <v>570.611328125</v>
-      </c>
-      <c r="C248" t="n">
-        <v>589.0309130674004</v>
-      </c>
-      <c r="D248" t="n">
-        <v>563.9941011861721</v>
-      </c>
-      <c r="E248" t="n">
-        <v>585.6235291686527</v>
-      </c>
-      <c r="F248" t="n">
-        <v>1868440</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B249" t="n">
-        <v>577.4754638671875</v>
-      </c>
-      <c r="C249" t="n">
-        <v>581.722321047838</v>
-      </c>
-      <c r="D249" t="n">
-        <v>564.3398106094054</v>
-      </c>
-      <c r="E249" t="n">
-        <v>574.8088129878467</v>
-      </c>
-      <c r="F249" t="n">
-        <v>2356075</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B250" t="n">
-        <v>576.6359252929688</v>
-      </c>
-      <c r="C250" t="n">
-        <v>587.6481800054737</v>
-      </c>
-      <c r="D250" t="n">
-        <v>569.9693282929067</v>
-      </c>
-      <c r="E250" t="n">
-        <v>579.3025761491948</v>
-      </c>
-      <c r="F250" t="n">
-        <v>1184596</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>45299</v>
-      </c>
-      <c r="B251" t="n">
-        <v>566.1175537109375</v>
-      </c>
-      <c r="C251" t="n">
-        <v>582.7099608797879</v>
-      </c>
-      <c r="D251" t="n">
-        <v>564.4385468522013</v>
-      </c>
-      <c r="E251" t="n">
-        <v>578.9075555864493</v>
-      </c>
-      <c r="F251" t="n">
-        <v>729154</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>45300</v>
-      </c>
-      <c r="B252" t="n">
-        <v>555.0559692382812</v>
-      </c>
-      <c r="C252" t="n">
-        <v>578.4137756860686</v>
-      </c>
-      <c r="D252" t="n">
-        <v>553.0806810915258</v>
-      </c>
-      <c r="E252" t="n">
-        <v>571.2533561540801</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1898648</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="B253" t="n">
-        <v>558.0188598632812</v>
-      </c>
-      <c r="C253" t="n">
-        <v>574.9075481467411</v>
-      </c>
-      <c r="D253" t="n">
-        <v>553.4262911520041</v>
-      </c>
-      <c r="E253" t="n">
-        <v>556.9818457197365</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1495212</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>45302</v>
-      </c>
-      <c r="B254" t="n">
-        <v>556.1917724609375</v>
-      </c>
-      <c r="C254" t="n">
-        <v>566.9076863216877</v>
-      </c>
-      <c r="D254" t="n">
-        <v>554.0683136349596</v>
-      </c>
-      <c r="E254" t="n">
-        <v>561.0311921511757</v>
-      </c>
-      <c r="F254" t="n">
-        <v>989599</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>45303</v>
-      </c>
-      <c r="B255" t="n">
-        <v>562.710205078125</v>
-      </c>
-      <c r="C255" t="n">
-        <v>579.7964353174062</v>
-      </c>
-      <c r="D255" t="n">
-        <v>559.2534508564954</v>
-      </c>
-      <c r="E255" t="n">
-        <v>561.9694720306329</v>
-      </c>
-      <c r="F255" t="n">
-        <v>2645387</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>45306</v>
-      </c>
-      <c r="B256" t="n">
-        <v>575.7964477539062</v>
-      </c>
-      <c r="C256" t="n">
-        <v>589.277812366893</v>
-      </c>
-      <c r="D256" t="n">
-        <v>571.0063985016319</v>
-      </c>
-      <c r="E256" t="n">
-        <v>571.845871783039</v>
-      </c>
-      <c r="F256" t="n">
-        <v>2141163</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>45307</v>
-      </c>
-      <c r="B257" t="n">
-        <v>565.8706665039062</v>
-      </c>
-      <c r="C257" t="n">
-        <v>578.3149573335415</v>
-      </c>
-      <c r="D257" t="n">
-        <v>558.018884305704</v>
-      </c>
-      <c r="E257" t="n">
-        <v>578.0186761768376</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1042281</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>45308</v>
-      </c>
-      <c r="B258" t="n">
-        <v>568.5867309570312</v>
-      </c>
-      <c r="C258" t="n">
-        <v>572.7348483100611</v>
-      </c>
-      <c r="D258" t="n">
-        <v>553.9696100625091</v>
-      </c>
-      <c r="E258" t="n">
-        <v>559.9448449219743</v>
-      </c>
-      <c r="F258" t="n">
-        <v>986550</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>45309</v>
-      </c>
-      <c r="B259" t="n">
-        <v>550.1671142578125</v>
-      </c>
-      <c r="C259" t="n">
-        <v>568.5867001793115</v>
-      </c>
-      <c r="D259" t="n">
-        <v>541.2289475272954</v>
-      </c>
-      <c r="E259" t="n">
-        <v>568.5867001793115</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1560624</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>45310</v>
-      </c>
-      <c r="B260" t="n">
-        <v>550.9572143554688</v>
-      </c>
-      <c r="C260" t="n">
-        <v>563.6484766857884</v>
-      </c>
-      <c r="D260" t="n">
-        <v>547.1548088396547</v>
-      </c>
-      <c r="E260" t="n">
-        <v>555.4510430499884</v>
-      </c>
-      <c r="F260" t="n">
-        <v>1027908</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>45314</v>
-      </c>
-      <c r="B261" t="n">
-        <v>537.4758911132812</v>
-      </c>
-      <c r="C261" t="n">
-        <v>565.920027011589</v>
-      </c>
-      <c r="D261" t="n">
-        <v>534.3154181732455</v>
-      </c>
-      <c r="E261" t="n">
-        <v>555.0559427234084</v>
-      </c>
-      <c r="F261" t="n">
-        <v>2033183</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>45315</v>
-      </c>
-      <c r="B262" t="n">
-        <v>562.90771484375</v>
-      </c>
-      <c r="C262" t="n">
-        <v>564.932373005488</v>
-      </c>
-      <c r="D262" t="n">
-        <v>541.5251979418915</v>
-      </c>
-      <c r="E262" t="n">
-        <v>542.6116425201212</v>
-      </c>
-      <c r="F262" t="n">
-        <v>1400404</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>45316</v>
-      </c>
-      <c r="B263" t="n">
-        <v>568.8336181640625</v>
-      </c>
-      <c r="C263" t="n">
-        <v>572.4879133049058</v>
-      </c>
-      <c r="D263" t="n">
-        <v>559.9941916193364</v>
-      </c>
-      <c r="E263" t="n">
-        <v>567.7471735108331</v>
-      </c>
-      <c r="F263" t="n">
-        <v>870449</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>45320</v>
-      </c>
-      <c r="B264" t="n">
-        <v>563.5496215820312</v>
-      </c>
-      <c r="C264" t="n">
-        <v>577.1791565060686</v>
-      </c>
-      <c r="D264" t="n">
-        <v>558.0188394976419</v>
-      </c>
-      <c r="E264" t="n">
-        <v>574.8087868807568</v>
-      </c>
-      <c r="F264" t="n">
-        <v>841293</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>45321</v>
-      </c>
-      <c r="B265" t="n">
-        <v>559.1052856445312</v>
-      </c>
-      <c r="C265" t="n">
-        <v>569.8212600057938</v>
-      </c>
-      <c r="D265" t="n">
-        <v>554.364606150065</v>
-      </c>
-      <c r="E265" t="n">
-        <v>563.5496839732828</v>
-      </c>
-      <c r="F265" t="n">
-        <v>760595</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>45322</v>
-      </c>
-      <c r="B266" t="n">
-        <v>567.154541015625</v>
-      </c>
-      <c r="C266" t="n">
-        <v>570.8582058459403</v>
-      </c>
-      <c r="D266" t="n">
-        <v>556.0929166662158</v>
-      </c>
-      <c r="E266" t="n">
-        <v>562.7595133607834</v>
-      </c>
-      <c r="F266" t="n">
-        <v>819183</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B267" t="n">
-        <v>559.59912109375</v>
-      </c>
-      <c r="C267" t="n">
-        <v>566.9077115219428</v>
-      </c>
-      <c r="D267" t="n">
-        <v>556.3399076307495</v>
-      </c>
-      <c r="E267" t="n">
-        <v>563.0065052836644</v>
-      </c>
-      <c r="F267" t="n">
-        <v>775514</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>45324</v>
-      </c>
-      <c r="B268" t="n">
-        <v>555.9814453125</v>
-      </c>
-      <c r="C268" t="n">
-        <v>569.8574415064394</v>
-      </c>
-      <c r="D268" t="n">
-        <v>554.0487051722928</v>
-      </c>
-      <c r="E268" t="n">
-        <v>565.9424161956694</v>
-      </c>
-      <c r="F268" t="n">
-        <v>782580</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>45327</v>
-      </c>
-      <c r="B269" t="n">
-        <v>559.4009399414062</v>
-      </c>
-      <c r="C269" t="n">
-        <v>564.9513146241051</v>
-      </c>
-      <c r="D269" t="n">
-        <v>555.0398880517523</v>
-      </c>
-      <c r="E269" t="n">
-        <v>557.4681996608881</v>
-      </c>
-      <c r="F269" t="n">
-        <v>584942</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>45328</v>
-      </c>
-      <c r="B270" t="n">
-        <v>586.9051513671875</v>
-      </c>
-      <c r="C270" t="n">
-        <v>598.6501677113883</v>
-      </c>
-      <c r="D270" t="n">
-        <v>559.400942502964</v>
-      </c>
-      <c r="E270" t="n">
-        <v>559.7973632709451</v>
-      </c>
-      <c r="F270" t="n">
-        <v>4594128</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>45329</v>
-      </c>
-      <c r="B271" t="n">
-        <v>586.5086669921875</v>
-      </c>
-      <c r="C271" t="n">
-        <v>598.6501645344846</v>
-      </c>
-      <c r="D271" t="n">
-        <v>577.3405974194326</v>
-      </c>
-      <c r="E271" t="n">
-        <v>594.784683976261</v>
-      </c>
-      <c r="F271" t="n">
-        <v>1377771</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>45330</v>
-      </c>
-      <c r="B272" t="n">
-        <v>577.0432739257812</v>
-      </c>
-      <c r="C272" t="n">
-        <v>589.6307979195744</v>
-      </c>
-      <c r="D272" t="n">
-        <v>574.3671766208728</v>
-      </c>
-      <c r="E272" t="n">
-        <v>587.7971476854021</v>
-      </c>
-      <c r="F272" t="n">
-        <v>681785</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B273" t="n">
-        <v>559.6982421875</v>
-      </c>
-      <c r="C273" t="n">
-        <v>579.6201843873815</v>
-      </c>
-      <c r="D273" t="n">
-        <v>550.0841468021395</v>
-      </c>
-      <c r="E273" t="n">
-        <v>577.0432378073873</v>
-      </c>
-      <c r="F273" t="n">
-        <v>1045958</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B274" t="n">
-        <v>534.721435546875</v>
-      </c>
-      <c r="C274" t="n">
-        <v>569.4114267315657</v>
-      </c>
-      <c r="D274" t="n">
-        <v>530.261293823129</v>
-      </c>
-      <c r="E274" t="n">
-        <v>562.9194547659109</v>
-      </c>
-      <c r="F274" t="n">
-        <v>1095517</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>45335</v>
-      </c>
-      <c r="B275" t="n">
-        <v>520.349853515625</v>
-      </c>
-      <c r="C275" t="n">
-        <v>536.3072248256207</v>
-      </c>
-      <c r="D275" t="n">
-        <v>516.5835238176584</v>
-      </c>
-      <c r="E275" t="n">
-        <v>533.0860114467143</v>
-      </c>
-      <c r="F275" t="n">
-        <v>1498364</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B276" t="n">
-        <v>515.3941650390625</v>
-      </c>
-      <c r="C276" t="n">
-        <v>529.716188070307</v>
-      </c>
-      <c r="D276" t="n">
-        <v>514.4525674463322</v>
-      </c>
-      <c r="E276" t="n">
-        <v>520.3498781644381</v>
-      </c>
-      <c r="F276" t="n">
-        <v>865263</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>45337</v>
-      </c>
-      <c r="B277" t="n">
-        <v>527.2879028320312</v>
-      </c>
-      <c r="C277" t="n">
-        <v>536.5055176059373</v>
-      </c>
-      <c r="D277" t="n">
-        <v>520.3994491453724</v>
-      </c>
-      <c r="E277" t="n">
-        <v>520.548144744366</v>
-      </c>
-      <c r="F277" t="n">
-        <v>603140</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>45338</v>
-      </c>
-      <c r="B278" t="n">
-        <v>531.1533813476562</v>
-      </c>
-      <c r="C278" t="n">
-        <v>534.7710157984494</v>
-      </c>
-      <c r="D278" t="n">
-        <v>526.3463030987411</v>
-      </c>
-      <c r="E278" t="n">
-        <v>532.5409447897031</v>
-      </c>
-      <c r="F278" t="n">
-        <v>533431</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>45341</v>
-      </c>
-      <c r="B279" t="n">
-        <v>528.1303100585938</v>
-      </c>
-      <c r="C279" t="n">
-        <v>536.3568420318361</v>
-      </c>
-      <c r="D279" t="n">
-        <v>522.5303906669484</v>
-      </c>
-      <c r="E279" t="n">
-        <v>532.7391473450708</v>
-      </c>
-      <c r="F279" t="n">
-        <v>647968</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B280" t="n">
-        <v>523.1746215820312</v>
-      </c>
-      <c r="C280" t="n">
-        <v>531.2524583461201</v>
-      </c>
-      <c r="D280" t="n">
-        <v>520.3498892382705</v>
-      </c>
-      <c r="E280" t="n">
-        <v>529.7657443768678</v>
-      </c>
-      <c r="F280" t="n">
-        <v>538820</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>45343</v>
-      </c>
-      <c r="B281" t="n">
-        <v>523.5215454101562</v>
-      </c>
-      <c r="C281" t="n">
-        <v>530.2117581133954</v>
-      </c>
-      <c r="D281" t="n">
-        <v>518.169351049747</v>
-      </c>
-      <c r="E281" t="n">
-        <v>527.139179686292</v>
-      </c>
-      <c r="F281" t="n">
-        <v>539306</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>45344</v>
-      </c>
-      <c r="B282" t="n">
-        <v>524.6613159179688</v>
-      </c>
-      <c r="C282" t="n">
-        <v>532.243581075238</v>
-      </c>
-      <c r="D282" t="n">
-        <v>522.877271320536</v>
-      </c>
-      <c r="E282" t="n">
-        <v>527.1391724406653</v>
-      </c>
-      <c r="F282" t="n">
-        <v>578322</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>45345</v>
-      </c>
-      <c r="B283" t="n">
-        <v>532.9869384765625</v>
-      </c>
-      <c r="C283" t="n">
-        <v>535.0187687279595</v>
-      </c>
-      <c r="D283" t="n">
-        <v>520.9941370945263</v>
-      </c>
-      <c r="E283" t="n">
-        <v>525.8011545547492</v>
-      </c>
-      <c r="F283" t="n">
-        <v>1229770</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>45348</v>
-      </c>
-      <c r="B284" t="n">
-        <v>527.4365844726562</v>
-      </c>
-      <c r="C284" t="n">
-        <v>535.4152706922896</v>
-      </c>
-      <c r="D284" t="n">
-        <v>525.602934276636</v>
-      </c>
-      <c r="E284" t="n">
-        <v>533.2347447671947</v>
-      </c>
-      <c r="F284" t="n">
-        <v>414739</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B285" t="n">
-        <v>540.2718505859375</v>
-      </c>
-      <c r="C285" t="n">
-        <v>542.5019216155898</v>
-      </c>
-      <c r="D285" t="n">
-        <v>524.2153875680798</v>
-      </c>
-      <c r="E285" t="n">
-        <v>530.2613337173178</v>
-      </c>
-      <c r="F285" t="n">
-        <v>864765</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>45350</v>
-      </c>
-      <c r="B286" t="n">
-        <v>539.4293823242188</v>
-      </c>
-      <c r="C286" t="n">
-        <v>549.0434780401145</v>
-      </c>
-      <c r="D286" t="n">
-        <v>533.3834364123858</v>
-      </c>
-      <c r="E286" t="n">
-        <v>542.4028102469981</v>
-      </c>
-      <c r="F286" t="n">
-        <v>1042518</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B287" t="n">
-        <v>544.7319946289062</v>
-      </c>
-      <c r="C287" t="n">
-        <v>550.0841893173813</v>
-      </c>
-      <c r="D287" t="n">
-        <v>535.3161391360862</v>
-      </c>
-      <c r="E287" t="n">
-        <v>539.3798604349797</v>
-      </c>
-      <c r="F287" t="n">
-        <v>784335</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B288" t="n">
-        <v>539.5284423828125</v>
-      </c>
-      <c r="C288" t="n">
-        <v>552.7602321999778</v>
-      </c>
-      <c r="D288" t="n">
-        <v>537.1992815039978</v>
-      </c>
-      <c r="E288" t="n">
-        <v>548.1018499478059</v>
-      </c>
-      <c r="F288" t="n">
-        <v>379961</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>45355</v>
-      </c>
-      <c r="B289" t="n">
-        <v>552.2647094726562</v>
-      </c>
-      <c r="C289" t="n">
-        <v>559.9956102228407</v>
-      </c>
-      <c r="D289" t="n">
-        <v>540.6683281001056</v>
-      </c>
-      <c r="E289" t="n">
-        <v>549.7868527902543</v>
-      </c>
-      <c r="F289" t="n">
-        <v>958732</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>45356</v>
-      </c>
-      <c r="B290" t="n">
-        <v>538.1904296875</v>
-      </c>
-      <c r="C290" t="n">
-        <v>552.2646666511646</v>
-      </c>
-      <c r="D290" t="n">
-        <v>531.5002171637603</v>
-      </c>
-      <c r="E290" t="n">
-        <v>550.0841408408149</v>
-      </c>
-      <c r="F290" t="n">
-        <v>1175793</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>45357</v>
-      </c>
-      <c r="B291" t="n">
-        <v>558.5088500976562</v>
-      </c>
-      <c r="C291" t="n">
-        <v>561.9778491665858</v>
-      </c>
-      <c r="D291" t="n">
-        <v>524.017100025494</v>
-      </c>
-      <c r="E291" t="n">
-        <v>534.275401645797</v>
-      </c>
-      <c r="F291" t="n">
-        <v>1554356</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>45358</v>
-      </c>
-      <c r="B292" t="n">
-        <v>585.7653198242188</v>
-      </c>
-      <c r="C292" t="n">
-        <v>590.7210331899059</v>
-      </c>
-      <c r="D292" t="n">
-        <v>549.3903716211656</v>
-      </c>
-      <c r="E292" t="n">
-        <v>561.9778956689205</v>
-      </c>
-      <c r="F292" t="n">
-        <v>2892318</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>45362</v>
-      </c>
-      <c r="B293" t="n">
-        <v>569.1636352539062</v>
-      </c>
-      <c r="C293" t="n">
-        <v>589.680299072024</v>
-      </c>
-      <c r="D293" t="n">
-        <v>565.892876788883</v>
-      </c>
-      <c r="E293" t="n">
-        <v>588.7387015077411</v>
-      </c>
-      <c r="F293" t="n">
-        <v>995925</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>45363</v>
-      </c>
-      <c r="B294" t="n">
-        <v>559.1531372070312</v>
-      </c>
-      <c r="C294" t="n">
-        <v>578.9263842195912</v>
-      </c>
-      <c r="D294" t="n">
-        <v>550.6292743182998</v>
-      </c>
-      <c r="E294" t="n">
-        <v>569.1636535416834</v>
-      </c>
-      <c r="F294" t="n">
-        <v>1217880</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B295" t="n">
-        <v>520.548095703125</v>
-      </c>
-      <c r="C295" t="n">
-        <v>558.261058815832</v>
-      </c>
-      <c r="D295" t="n">
-        <v>510.4384292767926</v>
-      </c>
-      <c r="E295" t="n">
-        <v>558.013273170552</v>
-      </c>
-      <c r="F295" t="n">
-        <v>1345464</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>45365</v>
-      </c>
-      <c r="B296" t="n">
-        <v>547.0611572265625</v>
-      </c>
-      <c r="C296" t="n">
-        <v>552.0664151392397</v>
-      </c>
-      <c r="D296" t="n">
-        <v>511.4295695006242</v>
-      </c>
-      <c r="E296" t="n">
-        <v>519.3091650831178</v>
-      </c>
-      <c r="F296" t="n">
-        <v>738682</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>45366</v>
-      </c>
-      <c r="B297" t="n">
-        <v>549.24169921875</v>
-      </c>
-      <c r="C297" t="n">
-        <v>557.7159563996914</v>
-      </c>
-      <c r="D297" t="n">
-        <v>540.3214157662761</v>
-      </c>
-      <c r="E297" t="n">
-        <v>546.1691208439494</v>
-      </c>
-      <c r="F297" t="n">
-        <v>702722</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>45369</v>
-      </c>
-      <c r="B298" t="n">
-        <v>578.3812866210938</v>
-      </c>
-      <c r="C298" t="n">
-        <v>598.8979517634511</v>
-      </c>
-      <c r="D298" t="n">
-        <v>543.8399891491463</v>
-      </c>
-      <c r="E298" t="n">
-        <v>546.6151764957274</v>
-      </c>
-      <c r="F298" t="n">
-        <v>6076286</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>45370</v>
-      </c>
-      <c r="B299" t="n">
-        <v>573.1777954101562</v>
-      </c>
-      <c r="C299" t="n">
-        <v>579.7193733454114</v>
-      </c>
-      <c r="D299" t="n">
-        <v>558.0133246197546</v>
-      </c>
-      <c r="E299" t="n">
-        <v>579.7193733454114</v>
-      </c>
-      <c r="F299" t="n">
-        <v>1378417</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>45371</v>
-      </c>
-      <c r="B300" t="n">
-        <v>571.0963745117188</v>
-      </c>
-      <c r="C300" t="n">
-        <v>579.0750602910175</v>
-      </c>
-      <c r="D300" t="n">
-        <v>564.1088313259861</v>
-      </c>
-      <c r="E300" t="n">
-        <v>573.1777497603904</v>
-      </c>
-      <c r="F300" t="n">
-        <v>938581</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>45372</v>
-      </c>
-      <c r="B301" t="n">
-        <v>585.9635620117188</v>
-      </c>
-      <c r="C301" t="n">
-        <v>589.8289821504769</v>
-      </c>
-      <c r="D301" t="n">
-        <v>574.9122969791096</v>
-      </c>
-      <c r="E301" t="n">
-        <v>582.5936527162954</v>
-      </c>
-      <c r="F301" t="n">
-        <v>1879577</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>45373</v>
-      </c>
-      <c r="B302" t="n">
-        <v>585.0714721679688</v>
-      </c>
-      <c r="C302" t="n">
-        <v>586.1617653386468</v>
-      </c>
-      <c r="D302" t="n">
-        <v>573.4750915006667</v>
-      </c>
-      <c r="E302" t="n">
-        <v>578.9759813966938</v>
-      </c>
-      <c r="F302" t="n">
-        <v>942129</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>45377</v>
-      </c>
-      <c r="B303" t="n">
-        <v>595.032470703125</v>
-      </c>
-      <c r="C303" t="n">
-        <v>602.4660406402568</v>
-      </c>
-      <c r="D303" t="n">
-        <v>581.9494360094106</v>
-      </c>
-      <c r="E303" t="n">
-        <v>584.7741683877019</v>
-      </c>
-      <c r="F303" t="n">
-        <v>1653802</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B304" t="n">
-        <v>601.4253540039062</v>
-      </c>
-      <c r="C304" t="n">
-        <v>604.0519062507898</v>
-      </c>
-      <c r="D304" t="n">
-        <v>589.0856157876929</v>
-      </c>
-      <c r="E304" t="n">
-        <v>600.8306926057105</v>
-      </c>
-      <c r="F304" t="n">
-        <v>1081187</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>45379</v>
-      </c>
-      <c r="B305" t="n">
-        <v>601.3757934570312</v>
-      </c>
-      <c r="C305" t="n">
-        <v>616.4907186325067</v>
-      </c>
-      <c r="D305" t="n">
-        <v>592.5050547797283</v>
-      </c>
-      <c r="E305" t="n">
-        <v>607.5704349223901</v>
-      </c>
-      <c r="F305" t="n">
-        <v>1446556</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B306" t="n">
-        <v>604.6961059570312</v>
-      </c>
-      <c r="C306" t="n">
-        <v>613.517299730949</v>
-      </c>
-      <c r="D306" t="n">
-        <v>596.6678746979505</v>
-      </c>
-      <c r="E306" t="n">
-        <v>599.6413026449502</v>
-      </c>
-      <c r="F306" t="n">
-        <v>953277</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>45384</v>
-      </c>
-      <c r="B307" t="n">
-        <v>596.4201049804688</v>
-      </c>
-      <c r="C307" t="n">
-        <v>606.9757986723337</v>
-      </c>
-      <c r="D307" t="n">
-        <v>594.2395789954652</v>
-      </c>
-      <c r="E307" t="n">
-        <v>604.5970320533211</v>
-      </c>
-      <c r="F307" t="n">
-        <v>842185</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>45385</v>
-      </c>
-      <c r="B308" t="n">
-        <v>613.8641357421875</v>
-      </c>
-      <c r="C308" t="n">
-        <v>623.428685884012</v>
-      </c>
-      <c r="D308" t="n">
-        <v>593.0501414598914</v>
-      </c>
-      <c r="E308" t="n">
-        <v>596.4200504462707</v>
-      </c>
-      <c r="F308" t="n">
-        <v>1751540</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>45386</v>
-      </c>
-      <c r="B309" t="n">
-        <v>621.6942138671875</v>
-      </c>
-      <c r="C309" t="n">
-        <v>631.3578544972474</v>
-      </c>
-      <c r="D309" t="n">
-        <v>614.5084298089379</v>
-      </c>
-      <c r="E309" t="n">
-        <v>614.5084298089379</v>
-      </c>
-      <c r="F309" t="n">
-        <v>1561560</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>45387</v>
-      </c>
-      <c r="B310" t="n">
-        <v>627.393310546875</v>
-      </c>
-      <c r="C310" t="n">
-        <v>630.8623098942907</v>
-      </c>
-      <c r="D310" t="n">
-        <v>615.0535721978729</v>
-      </c>
-      <c r="E310" t="n">
-        <v>619.5632592506037</v>
-      </c>
-      <c r="F310" t="n">
-        <v>1043224</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>45390</v>
-      </c>
-      <c r="B311" t="n">
-        <v>609.8004760742188</v>
-      </c>
-      <c r="C311" t="n">
-        <v>640.7241368582401</v>
-      </c>
-      <c r="D311" t="n">
-        <v>606.0341463460943</v>
-      </c>
-      <c r="E311" t="n">
-        <v>632.7454511393551</v>
-      </c>
-      <c r="F311" t="n">
-        <v>1015355</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>45391</v>
-      </c>
-      <c r="B312" t="n">
-        <v>601.0784301757812</v>
-      </c>
-      <c r="C312" t="n">
-        <v>616.3915951467941</v>
-      </c>
-      <c r="D312" t="n">
-        <v>595.6766910119557</v>
-      </c>
-      <c r="E312" t="n">
-        <v>613.0216861745334</v>
-      </c>
-      <c r="F312" t="n">
-        <v>829986</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>45392</v>
-      </c>
-      <c r="B313" t="n">
-        <v>605.6376953125</v>
-      </c>
-      <c r="C313" t="n">
-        <v>609.0571495038228</v>
-      </c>
-      <c r="D313" t="n">
-        <v>596.667866560295</v>
-      </c>
-      <c r="E313" t="n">
-        <v>604.5970076441528</v>
-      </c>
-      <c r="F313" t="n">
-        <v>392850</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B314" t="n">
-        <v>603.2589721679688</v>
-      </c>
-      <c r="C314" t="n">
-        <v>613.9633002285566</v>
-      </c>
-      <c r="D314" t="n">
-        <v>598.6501348459234</v>
-      </c>
-      <c r="E314" t="n">
-        <v>603.1102765790471</v>
-      </c>
-      <c r="F314" t="n">
-        <v>576272</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>45397</v>
-      </c>
-      <c r="B315" t="n">
-        <v>585.9140014648438</v>
-      </c>
-      <c r="C315" t="n">
-        <v>598.6997053469953</v>
-      </c>
-      <c r="D315" t="n">
-        <v>574.8131916912483</v>
-      </c>
-      <c r="E315" t="n">
-        <v>595.2307060736559</v>
-      </c>
-      <c r="F315" t="n">
-        <v>566051</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>45398</v>
-      </c>
-      <c r="B316" t="n">
-        <v>585.8643798828125</v>
-      </c>
-      <c r="C316" t="n">
-        <v>602.0200530230165</v>
-      </c>
-      <c r="D316" t="n">
-        <v>577.4396675927003</v>
-      </c>
-      <c r="E316" t="n">
-        <v>582.7423169190861</v>
-      </c>
-      <c r="F316" t="n">
-        <v>891413</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>45400</v>
-      </c>
-      <c r="B317" t="n">
-        <v>574.2184448242188</v>
-      </c>
-      <c r="C317" t="n">
-        <v>597.6589916635676</v>
-      </c>
-      <c r="D317" t="n">
-        <v>569.9069986841647</v>
-      </c>
-      <c r="E317" t="n">
-        <v>587.0537536761013</v>
-      </c>
-      <c r="F317" t="n">
-        <v>474367</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="B318" t="n">
-        <v>570.35302734375</v>
-      </c>
-      <c r="C318" t="n">
-        <v>576.7954543123684</v>
-      </c>
-      <c r="D318" t="n">
-        <v>560.0451199961428</v>
-      </c>
-      <c r="E318" t="n">
-        <v>560.0451199961428</v>
-      </c>
-      <c r="F318" t="n">
-        <v>365792</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>45404</v>
-      </c>
-      <c r="B319" t="n">
-        <v>568.2220458984375</v>
-      </c>
-      <c r="C319" t="n">
-        <v>587.4997817511373</v>
-      </c>
-      <c r="D319" t="n">
-        <v>564.7530467653646</v>
-      </c>
-      <c r="E319" t="n">
-        <v>581.8007117468032</v>
-      </c>
-      <c r="F319" t="n">
-        <v>567626</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>45405</v>
-      </c>
-      <c r="B320" t="n">
-        <v>566.537109375</v>
-      </c>
-      <c r="C320" t="n">
-        <v>574.6149460966436</v>
-      </c>
-      <c r="D320" t="n">
-        <v>563.960162706322</v>
-      </c>
-      <c r="E320" t="n">
-        <v>569.5105372978804</v>
-      </c>
-      <c r="F320" t="n">
-        <v>377045</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>45406</v>
-      </c>
-      <c r="B321" t="n">
-        <v>575.9034423828125</v>
-      </c>
-      <c r="C321" t="n">
-        <v>578.8273253890814</v>
-      </c>
-      <c r="D321" t="n">
-        <v>567.9743009391265</v>
-      </c>
-      <c r="E321" t="n">
-        <v>569.6097105597061</v>
-      </c>
-      <c r="F321" t="n">
-        <v>330685</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>45407</v>
-      </c>
-      <c r="B322" t="n">
-        <v>569.6096801757812</v>
-      </c>
-      <c r="C322" t="n">
-        <v>578.1830276077212</v>
-      </c>
-      <c r="D322" t="n">
-        <v>566.4380116685792</v>
-      </c>
-      <c r="E322" t="n">
-        <v>575.9529566956402</v>
-      </c>
-      <c r="F322" t="n">
-        <v>415059</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>45408</v>
-      </c>
-      <c r="B323" t="n">
-        <v>615.2517700195312</v>
-      </c>
-      <c r="C323" t="n">
-        <v>637.9985048279821</v>
-      </c>
-      <c r="D323" t="n">
-        <v>580.0166626271886</v>
-      </c>
-      <c r="E323" t="n">
-        <v>589.7298480251649</v>
-      </c>
-      <c r="F323" t="n">
-        <v>14962926</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>45411</v>
-      </c>
-      <c r="B324" t="n">
-        <v>606.8270874023438</v>
-      </c>
-      <c r="C324" t="n">
-        <v>624.9649857966364</v>
-      </c>
-      <c r="D324" t="n">
-        <v>602.9120618363226</v>
-      </c>
-      <c r="E324" t="n">
-        <v>615.5986756561556</v>
-      </c>
-      <c r="F324" t="n">
-        <v>1494300</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>45412</v>
-      </c>
-      <c r="B325" t="n">
-        <v>607.8182373046875</v>
-      </c>
-      <c r="C325" t="n">
-        <v>633.0428301445742</v>
-      </c>
-      <c r="D325" t="n">
-        <v>600.2359717446495</v>
-      </c>
-      <c r="E325" t="n">
-        <v>609.6022819968885</v>
-      </c>
-      <c r="F325" t="n">
-        <v>2736791</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>45414</v>
-      </c>
-      <c r="B326" t="n">
-        <v>621.0995483398438</v>
-      </c>
-      <c r="C326" t="n">
-        <v>624.4198519260772</v>
-      </c>
-      <c r="D326" t="n">
-        <v>606.1332584493331</v>
-      </c>
-      <c r="E326" t="n">
-        <v>609.354471971174</v>
-      </c>
-      <c r="F326" t="n">
-        <v>1297525</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>45415</v>
-      </c>
-      <c r="B327" t="n">
-        <v>630.56494140625</v>
-      </c>
-      <c r="C327" t="n">
-        <v>656.7806755739724</v>
-      </c>
-      <c r="D327" t="n">
-        <v>620.8021503882451</v>
-      </c>
-      <c r="E327" t="n">
-        <v>624.4198451172979</v>
-      </c>
-      <c r="F327" t="n">
-        <v>2769630</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>45418</v>
-      </c>
-      <c r="B328" t="n">
-        <v>623.7755737304688</v>
-      </c>
-      <c r="C328" t="n">
-        <v>636.9082132355928</v>
-      </c>
-      <c r="D328" t="n">
-        <v>608.9580401939072</v>
-      </c>
-      <c r="E328" t="n">
-        <v>636.9082132355928</v>
-      </c>
-      <c r="F328" t="n">
-        <v>874171</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>45419</v>
-      </c>
-      <c r="B329" t="n">
-        <v>604.4979248046875</v>
-      </c>
-      <c r="C329" t="n">
-        <v>624.3207777512973</v>
-      </c>
-      <c r="D329" t="n">
-        <v>593.0501788323832</v>
-      </c>
-      <c r="E329" t="n">
-        <v>624.3207777512973</v>
-      </c>
-      <c r="F329" t="n">
-        <v>891523</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>45420</v>
-      </c>
-      <c r="B330" t="n">
-        <v>598.1546020507812</v>
-      </c>
-      <c r="C330" t="n">
-        <v>604.5970294133829</v>
-      </c>
-      <c r="D330" t="n">
-        <v>591.7121746881796</v>
-      </c>
-      <c r="E330" t="n">
-        <v>604.497939344085</v>
-      </c>
-      <c r="F330" t="n">
-        <v>507721</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>45421</v>
-      </c>
-      <c r="B331" t="n">
-        <v>575.3582763671875</v>
-      </c>
-      <c r="C331" t="n">
-        <v>600.632412538356</v>
-      </c>
-      <c r="D331" t="n">
-        <v>569.7087514770765</v>
-      </c>
-      <c r="E331" t="n">
-        <v>598.1545560509865</v>
-      </c>
-      <c r="F331" t="n">
-        <v>885740</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>45422</v>
-      </c>
-      <c r="B332" t="n">
-        <v>598.1050415039062</v>
-      </c>
-      <c r="C332" t="n">
-        <v>604.5970137327835</v>
-      </c>
-      <c r="D332" t="n">
-        <v>567.5282545946271</v>
-      </c>
-      <c r="E332" t="n">
-        <v>579.42196634019</v>
-      </c>
-      <c r="F332" t="n">
-        <v>975704</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>45425</v>
-      </c>
-      <c r="B333" t="n">
-        <v>602.763427734375</v>
-      </c>
-      <c r="C333" t="n">
-        <v>606.9757840034375</v>
-      </c>
-      <c r="D333" t="n">
-        <v>582.8414241416102</v>
-      </c>
-      <c r="E333" t="n">
-        <v>599.6413041841923</v>
-      </c>
-      <c r="F333" t="n">
-        <v>593353</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>45426</v>
-      </c>
-      <c r="B334" t="n">
-        <v>598.6005859375</v>
-      </c>
-      <c r="C334" t="n">
-        <v>606.2323960636579</v>
-      </c>
-      <c r="D334" t="n">
-        <v>591.0678658736189</v>
-      </c>
-      <c r="E334" t="n">
-        <v>604.5474415431487</v>
-      </c>
-      <c r="F334" t="n">
-        <v>529865</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>45427</v>
-      </c>
-      <c r="B335" t="n">
-        <v>617.4818725585938</v>
-      </c>
-      <c r="C335" t="n">
-        <v>627.3932990844138</v>
-      </c>
-      <c r="D335" t="n">
-        <v>600.6324474646996</v>
-      </c>
-      <c r="E335" t="n">
-        <v>601.6235901172815</v>
-      </c>
-      <c r="F335" t="n">
-        <v>1312823</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>45428</v>
-      </c>
-      <c r="B336" t="n">
-        <v>634.47998046875</v>
-      </c>
-      <c r="C336" t="n">
-        <v>652.1718522631776</v>
-      </c>
-      <c r="D336" t="n">
-        <v>621.7933063755929</v>
-      </c>
-      <c r="E336" t="n">
-        <v>624.1720728916962</v>
-      </c>
-      <c r="F336" t="n">
-        <v>2598575</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>45429</v>
-      </c>
-      <c r="B337" t="n">
-        <v>611.0394287109375</v>
-      </c>
-      <c r="C337" t="n">
-        <v>631.9029688818829</v>
-      </c>
-      <c r="D337" t="n">
-        <v>607.0748582083523</v>
-      </c>
-      <c r="E337" t="n">
-        <v>631.3578525366864</v>
-      </c>
-      <c r="F337" t="n">
-        <v>1116442</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>45433</v>
-      </c>
-      <c r="B338" t="n">
-        <v>600.0873413085938</v>
-      </c>
-      <c r="C338" t="n">
-        <v>619.464168397147</v>
-      </c>
-      <c r="D338" t="n">
-        <v>597.3616989676464</v>
-      </c>
-      <c r="E338" t="n">
-        <v>619.464168397147</v>
-      </c>
-      <c r="F338" t="n">
-        <v>695906</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>45434</v>
-      </c>
-      <c r="B339" t="n">
-        <v>615.5491333007812</v>
-      </c>
-      <c r="C339" t="n">
-        <v>619.7614895811913</v>
-      </c>
-      <c r="D339" t="n">
-        <v>596.9156635004648</v>
-      </c>
-      <c r="E339" t="n">
-        <v>604.4979290030217</v>
-      </c>
-      <c r="F339" t="n">
-        <v>1268953</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B340" t="n">
-        <v>617.4323120117188</v>
-      </c>
-      <c r="C340" t="n">
-        <v>624.4198554379487</v>
-      </c>
-      <c r="D340" t="n">
-        <v>614.4093390962059</v>
-      </c>
-      <c r="E340" t="n">
-        <v>615.4995717888352</v>
-      </c>
-      <c r="F340" t="n">
-        <v>662018</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>45436</v>
-      </c>
-      <c r="B341" t="n">
-        <v>618.1756591796875</v>
-      </c>
-      <c r="C341" t="n">
-        <v>627.3437283403372</v>
-      </c>
-      <c r="D341" t="n">
-        <v>614.5579644482081</v>
-      </c>
-      <c r="E341" t="n">
-        <v>619.860613718932</v>
-      </c>
-      <c r="F341" t="n">
-        <v>372605</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>45439</v>
-      </c>
-      <c r="B342" t="n">
-        <v>618.0269775390625</v>
-      </c>
-      <c r="C342" t="n">
-        <v>624.4198596294157</v>
-      </c>
-      <c r="D342" t="n">
-        <v>616.4907185547564</v>
-      </c>
-      <c r="E342" t="n">
-        <v>621.4464317264184</v>
-      </c>
-      <c r="F342" t="n">
-        <v>330026</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>45440</v>
-      </c>
-      <c r="B343" t="n">
-        <v>617.7296142578125</v>
-      </c>
-      <c r="C343" t="n">
-        <v>644.540009003146</v>
-      </c>
-      <c r="D343" t="n">
-        <v>609.3544473406473</v>
-      </c>
-      <c r="E343" t="n">
-        <v>618.4729711943442</v>
-      </c>
-      <c r="F343" t="n">
-        <v>1683057</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>45441</v>
-      </c>
-      <c r="B344" t="n">
-        <v>620.5543823242188</v>
-      </c>
-      <c r="C344" t="n">
-        <v>636.3135744883371</v>
-      </c>
-      <c r="D344" t="n">
-        <v>611.7827941634362</v>
-      </c>
-      <c r="E344" t="n">
-        <v>617.4818643399283</v>
-      </c>
-      <c r="F344" t="n">
-        <v>825892</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>45442</v>
-      </c>
-      <c r="B345" t="n">
-        <v>619.513671875</v>
-      </c>
-      <c r="C345" t="n">
-        <v>636.3135510939115</v>
-      </c>
-      <c r="D345" t="n">
-        <v>615.3508608437012</v>
-      </c>
-      <c r="E345" t="n">
-        <v>620.5543595091888</v>
-      </c>
-      <c r="F345" t="n">
-        <v>797232</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>45443</v>
-      </c>
-      <c r="B346" t="n">
-        <v>604.6961059570312</v>
-      </c>
-      <c r="C346" t="n">
-        <v>623.9242975454482</v>
-      </c>
-      <c r="D346" t="n">
-        <v>597.7085623804911</v>
-      </c>
-      <c r="E346" t="n">
-        <v>620.4552982739485</v>
-      </c>
-      <c r="F346" t="n">
-        <v>1043405</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>45446</v>
-      </c>
-      <c r="B347" t="n">
-        <v>595.9244995117188</v>
-      </c>
-      <c r="C347" t="n">
-        <v>624.4198498002208</v>
-      </c>
-      <c r="D347" t="n">
-        <v>594.6855712383056</v>
-      </c>
-      <c r="E347" t="n">
-        <v>623.9738235228832</v>
-      </c>
-      <c r="F347" t="n">
-        <v>1658679</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>45447</v>
-      </c>
-      <c r="B348" t="n">
-        <v>571.2946166992188</v>
-      </c>
-      <c r="C348" t="n">
-        <v>599.5917257243819</v>
-      </c>
-      <c r="D348" t="n">
-        <v>525.5533616826303</v>
-      </c>
-      <c r="E348" t="n">
-        <v>597.5102899754476</v>
-      </c>
-      <c r="F348" t="n">
-        <v>1048690</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>45448</v>
-      </c>
-      <c r="B349" t="n">
-        <v>600.6820068359375</v>
-      </c>
-      <c r="C349" t="n">
-        <v>608.5120581760475</v>
-      </c>
-      <c r="D349" t="n">
-        <v>574.8627522188125</v>
-      </c>
-      <c r="E349" t="n">
-        <v>575.8043498601495</v>
-      </c>
-      <c r="F349" t="n">
-        <v>866641</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>45449</v>
-      </c>
-      <c r="B350" t="n">
-        <v>661.8355102539062</v>
-      </c>
-      <c r="C350" t="n">
-        <v>669.0212945284713</v>
-      </c>
-      <c r="D350" t="n">
-        <v>608.5120473222502</v>
-      </c>
-      <c r="E350" t="n">
-        <v>609.5527350148294</v>
-      </c>
-      <c r="F350" t="n">
-        <v>2984627</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>45450</v>
-      </c>
-      <c r="B351" t="n">
-        <v>667.1876831054688</v>
-      </c>
-      <c r="C351" t="n">
-        <v>690.7273204805808</v>
-      </c>
-      <c r="D351" t="n">
-        <v>661.885033757927</v>
-      </c>
-      <c r="E351" t="n">
-        <v>669.0212727663436</v>
-      </c>
-      <c r="F351" t="n">
-        <v>3539729</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>45453</v>
-      </c>
-      <c r="B352" t="n">
-        <v>682.3026123046875</v>
-      </c>
-      <c r="C352" t="n">
-        <v>692.808700009735</v>
-      </c>
-      <c r="D352" t="n">
-        <v>654.1541373482477</v>
-      </c>
-      <c r="E352" t="n">
-        <v>667.1876871614136</v>
-      </c>
-      <c r="F352" t="n">
-        <v>1886440</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>45454</v>
-      </c>
-      <c r="B353" t="n">
-        <v>686.0689697265625</v>
-      </c>
-      <c r="C353" t="n">
-        <v>715.2581335188185</v>
-      </c>
-      <c r="D353" t="n">
-        <v>670.0124463396322</v>
-      </c>
-      <c r="E353" t="n">
-        <v>682.3026396714919</v>
-      </c>
-      <c r="F353" t="n">
-        <v>2530830</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>45455</v>
-      </c>
-      <c r="B354" t="n">
-        <v>693.2546997070312</v>
-      </c>
-      <c r="C354" t="n">
-        <v>711.6403827330504</v>
-      </c>
-      <c r="D354" t="n">
-        <v>686.8618178746573</v>
-      </c>
-      <c r="E354" t="n">
-        <v>691.7679858155277</v>
-      </c>
-      <c r="F354" t="n">
-        <v>1374199</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>45456</v>
-      </c>
-      <c r="B355" t="n">
-        <v>709.5093994140625</v>
-      </c>
-      <c r="C355" t="n">
-        <v>716.5960931359768</v>
-      </c>
-      <c r="D355" t="n">
-        <v>690.8759308062541</v>
-      </c>
-      <c r="E355" t="n">
-        <v>700.8369017447129</v>
-      </c>
-      <c r="F355" t="n">
-        <v>1490080</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>45457</v>
-      </c>
-      <c r="B356" t="n">
-        <v>690.2813110351562</v>
-      </c>
-      <c r="C356" t="n">
-        <v>715.4067530273496</v>
-      </c>
-      <c r="D356" t="n">
-        <v>687.9520895097685</v>
-      </c>
-      <c r="E356" t="n">
-        <v>713.3253776591317</v>
-      </c>
-      <c r="F356" t="n">
-        <v>838693</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>45461</v>
-      </c>
-      <c r="B357" t="n">
-        <v>696.1785888671875</v>
-      </c>
-      <c r="C357" t="n">
-        <v>705.1979623608439</v>
-      </c>
-      <c r="D357" t="n">
-        <v>683.4423701160174</v>
-      </c>
-      <c r="E357" t="n">
-        <v>694.3449387540628</v>
-      </c>
-      <c r="F357" t="n">
-        <v>876393</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>45462</v>
-      </c>
-      <c r="B358" t="n">
-        <v>705.098876953125</v>
-      </c>
-      <c r="C358" t="n">
-        <v>725.4173004581627</v>
-      </c>
-      <c r="D358" t="n">
-        <v>686.4158024578639</v>
-      </c>
-      <c r="E358" t="n">
-        <v>699.7466826612974</v>
-      </c>
-      <c r="F358" t="n">
-        <v>1422015</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>45463</v>
-      </c>
-      <c r="B359" t="n">
-        <v>714.5147705078125</v>
-      </c>
-      <c r="C359" t="n">
-        <v>717.5872885676729</v>
-      </c>
-      <c r="D359" t="n">
-        <v>698.7555779560903</v>
-      </c>
-      <c r="E359" t="n">
-        <v>708.6670045937653</v>
-      </c>
-      <c r="F359" t="n">
-        <v>740475</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>45464</v>
-      </c>
-      <c r="B360" t="n">
-        <v>745.3887939453125</v>
-      </c>
-      <c r="C360" t="n">
-        <v>775.569098769501</v>
-      </c>
-      <c r="D360" t="n">
-        <v>722.0473973847687</v>
-      </c>
-      <c r="E360" t="n">
-        <v>723.5341113121224</v>
-      </c>
-      <c r="F360" t="n">
-        <v>4173169</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="B361" t="n">
-        <v>746.8259887695312</v>
-      </c>
-      <c r="C361" t="n">
-        <v>757.8772535443643</v>
-      </c>
-      <c r="D361" t="n">
-        <v>740.3835615273257</v>
-      </c>
-      <c r="E361" t="n">
-        <v>745.3888198242838</v>
-      </c>
-      <c r="F361" t="n">
-        <v>855635</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>45468</v>
-      </c>
-      <c r="B362" t="n">
-        <v>744.6454467773438</v>
-      </c>
-      <c r="C362" t="n">
-        <v>755.250685030886</v>
-      </c>
-      <c r="D362" t="n">
-        <v>742.1675901991584</v>
-      </c>
-      <c r="E362" t="n">
-        <v>747.3215439806929</v>
-      </c>
-      <c r="F362" t="n">
-        <v>441114</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>45469</v>
-      </c>
-      <c r="B363" t="n">
-        <v>744.5958862304688</v>
-      </c>
-      <c r="C363" t="n">
-        <v>762.1886675690256</v>
-      </c>
-      <c r="D363" t="n">
-        <v>741.3746727459442</v>
-      </c>
-      <c r="E363" t="n">
-        <v>753.5657147576973</v>
-      </c>
-      <c r="F363" t="n">
-        <v>695251</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>45470</v>
-      </c>
-      <c r="B364" t="n">
-        <v>736.4189453125</v>
-      </c>
-      <c r="C364" t="n">
-        <v>750.592272268731</v>
-      </c>
-      <c r="D364" t="n">
-        <v>732.6526155645882</v>
-      </c>
-      <c r="E364" t="n">
-        <v>745.3887736645713</v>
-      </c>
-      <c r="F364" t="n">
-        <v>865815</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>45471</v>
-      </c>
-      <c r="B365" t="n">
-        <v>740.7304077148438</v>
-      </c>
-      <c r="C365" t="n">
-        <v>744.29855741879</v>
-      </c>
-      <c r="D365" t="n">
-        <v>729.4314182220415</v>
-      </c>
-      <c r="E365" t="n">
-        <v>738.1039160868114</v>
-      </c>
-      <c r="F365" t="n">
-        <v>522382</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>45474</v>
-      </c>
-      <c r="B366" t="n">
-        <v>748.2631225585938</v>
-      </c>
-      <c r="C366" t="n">
-        <v>759.215236256863</v>
-      </c>
-      <c r="D366" t="n">
-        <v>731.4632432866382</v>
-      </c>
-      <c r="E366" t="n">
-        <v>739.4419291666691</v>
-      </c>
-      <c r="F366" t="n">
-        <v>715813</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>45475</v>
-      </c>
-      <c r="B367" t="n">
-        <v>744.7445678710938</v>
-      </c>
-      <c r="C367" t="n">
-        <v>760.9992700841387</v>
-      </c>
-      <c r="D367" t="n">
-        <v>740.2844262068274</v>
-      </c>
-      <c r="E367" t="n">
-        <v>753.2683699649856</v>
-      </c>
-      <c r="F367" t="n">
-        <v>660914</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>45476</v>
-      </c>
-      <c r="B368" t="n">
-        <v>738.4508056640625</v>
-      </c>
-      <c r="C368" t="n">
-        <v>748.2631419159085</v>
-      </c>
-      <c r="D368" t="n">
-        <v>731.7605928999526</v>
-      </c>
-      <c r="E368" t="n">
-        <v>747.3215443168654</v>
-      </c>
-      <c r="F368" t="n">
-        <v>475872</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>45477</v>
-      </c>
-      <c r="B369" t="n">
-        <v>745.6365966796875</v>
-      </c>
-      <c r="C369" t="n">
-        <v>762.634717169614</v>
-      </c>
-      <c r="D369" t="n">
-        <v>736.4189822178616</v>
-      </c>
-      <c r="E369" t="n">
-        <v>746.3304086272542</v>
-      </c>
-      <c r="F369" t="n">
-        <v>931344</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>45478</v>
-      </c>
-      <c r="B370" t="n">
-        <v>730.6703491210938</v>
-      </c>
-      <c r="C370" t="n">
-        <v>752.772817374321</v>
-      </c>
-      <c r="D370" t="n">
-        <v>725.5163954154087</v>
-      </c>
-      <c r="E370" t="n">
-        <v>751.2861034492894</v>
-      </c>
-      <c r="F370" t="n">
-        <v>718141</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="B371" t="n">
-        <v>727.8455810546875</v>
-      </c>
-      <c r="C371" t="n">
-        <v>738.0047932203281</v>
-      </c>
-      <c r="D371" t="n">
-        <v>716.1996549135872</v>
-      </c>
-      <c r="E371" t="n">
-        <v>737.9057031531161</v>
-      </c>
-      <c r="F371" t="n">
-        <v>979753</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="B372" t="n">
-        <v>719.9164428710938</v>
-      </c>
-      <c r="C372" t="n">
-        <v>741.3747055380278</v>
-      </c>
-      <c r="D372" t="n">
-        <v>718.1323981919704</v>
-      </c>
-      <c r="E372" t="n">
-        <v>728.9854223572453</v>
-      </c>
-      <c r="F372" t="n">
-        <v>534732</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>45483</v>
-      </c>
-      <c r="B373" t="n">
-        <v>728.1925048828125</v>
-      </c>
-      <c r="C373" t="n">
-        <v>731.4632634742354</v>
-      </c>
-      <c r="D373" t="n">
-        <v>708.5182873124219</v>
-      </c>
-      <c r="E373" t="n">
-        <v>721.5022921071336</v>
-      </c>
-      <c r="F373" t="n">
-        <v>619778</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>45484</v>
-      </c>
-      <c r="B374" t="n">
-        <v>711.68994140625</v>
-      </c>
-      <c r="C374" t="n">
-        <v>731.3145530513731</v>
-      </c>
-      <c r="D374" t="n">
-        <v>708.1218521960619</v>
-      </c>
-      <c r="E374" t="n">
-        <v>731.3145530513731</v>
-      </c>
-      <c r="F374" t="n">
-        <v>604530</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>45485</v>
-      </c>
-      <c r="B375" t="n">
-        <v>762.8825073242188</v>
-      </c>
-      <c r="C375" t="n">
-        <v>781.0204056613536</v>
-      </c>
-      <c r="D375" t="n">
-        <v>714.1678220372435</v>
-      </c>
-      <c r="E375" t="n">
-        <v>721.997873144611</v>
-      </c>
-      <c r="F375" t="n">
-        <v>5502711</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>45488</v>
-      </c>
-      <c r="B376" t="n">
-        <v>779.93017578125</v>
-      </c>
-      <c r="C376" t="n">
-        <v>832.0642549933799</v>
-      </c>
-      <c r="D376" t="n">
-        <v>763.2789308592413</v>
-      </c>
-      <c r="E376" t="n">
-        <v>771.1089819950561</v>
-      </c>
-      <c r="F376" t="n">
-        <v>7353619</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>45489</v>
-      </c>
-      <c r="B377" t="n">
-        <v>772.29833984375</v>
-      </c>
-      <c r="C377" t="n">
-        <v>796.6308790104159</v>
-      </c>
-      <c r="D377" t="n">
-        <v>768.2346188142797</v>
-      </c>
-      <c r="E377" t="n">
-        <v>781.5654991218232</v>
-      </c>
-      <c r="F377" t="n">
-        <v>1169849</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>45491</v>
-      </c>
-      <c r="B378" t="n">
-        <v>783.2999877929688</v>
-      </c>
-      <c r="C378" t="n">
-        <v>794.7476727695391</v>
-      </c>
-      <c r="D378" t="n">
-        <v>765.1620902398196</v>
-      </c>
-      <c r="E378" t="n">
-        <v>783.0026571106962</v>
-      </c>
-      <c r="F378" t="n">
-        <v>2679955</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>45492</v>
-      </c>
-      <c r="B379" t="n">
-        <v>747.5499877929688</v>
-      </c>
-      <c r="C379" t="n">
-        <v>800.7000122070312</v>
-      </c>
-      <c r="D379" t="n">
-        <v>742.4500122070312</v>
-      </c>
-      <c r="E379" t="n">
-        <v>798.2000122070312</v>
-      </c>
-      <c r="F379" t="n">
-        <v>1675559</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>45495</v>
-      </c>
-      <c r="B380" t="n">
-        <v>748.5499877929688</v>
-      </c>
-      <c r="C380" t="n">
-        <v>759.5</v>
-      </c>
-      <c r="D380" t="n">
-        <v>732.25</v>
-      </c>
-      <c r="E380" t="n">
-        <v>742</v>
-      </c>
-      <c r="F380" t="n">
-        <v>748743</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>45496</v>
-      </c>
-      <c r="B381" t="n">
-        <v>758.9500122070312</v>
-      </c>
-      <c r="C381" t="n">
-        <v>787.1500244140625</v>
-      </c>
-      <c r="D381" t="n">
-        <v>701.1500244140625</v>
-      </c>
-      <c r="E381" t="n">
-        <v>740</v>
-      </c>
-      <c r="F381" t="n">
-        <v>3988863</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>45497</v>
-      </c>
-      <c r="B382" t="n">
-        <v>767.0499877929688</v>
-      </c>
-      <c r="C382" t="n">
-        <v>782.8499755859375</v>
-      </c>
-      <c r="D382" t="n">
-        <v>750.75</v>
-      </c>
-      <c r="E382" t="n">
-        <v>760</v>
-      </c>
-      <c r="F382" t="n">
-        <v>830737</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="B383" t="n">
-        <v>773.5999755859375</v>
-      </c>
-      <c r="C383" t="n">
-        <v>778</v>
-      </c>
-      <c r="D383" t="n">
-        <v>754.0999755859375</v>
-      </c>
-      <c r="E383" t="n">
-        <v>754.5499877929688</v>
-      </c>
-      <c r="F383" t="n">
-        <v>527939</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>45499</v>
-      </c>
-      <c r="B384" t="n">
-        <v>808.8499755859375</v>
-      </c>
-      <c r="C384" t="n">
-        <v>826</v>
-      </c>
-      <c r="D384" t="n">
-        <v>773.5999755859375</v>
-      </c>
-      <c r="E384" t="n">
-        <v>773.5999755859375</v>
-      </c>
-      <c r="F384" t="n">
-        <v>4148620</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>45502</v>
-      </c>
-      <c r="B385" t="n">
-        <v>812.7000122070312</v>
-      </c>
-      <c r="C385" t="n">
-        <v>817.25</v>
-      </c>
-      <c r="D385" t="n">
-        <v>803.0999755859375</v>
-      </c>
-      <c r="E385" t="n">
-        <v>815</v>
-      </c>
-      <c r="F385" t="n">
-        <v>1016925</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>45503</v>
-      </c>
-      <c r="B386" t="n">
-        <v>810</v>
-      </c>
-      <c r="C386" t="n">
-        <v>812.6500244140625</v>
-      </c>
-      <c r="D386" t="n">
-        <v>799.1500244140625</v>
-      </c>
-      <c r="E386" t="n">
-        <v>810</v>
-      </c>
-      <c r="F386" t="n">
-        <v>508483</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>45504</v>
-      </c>
-      <c r="B387" t="n">
-        <v>793.3499755859375</v>
-      </c>
-      <c r="C387" t="n">
-        <v>815.5</v>
-      </c>
-      <c r="D387" t="n">
-        <v>790</v>
-      </c>
-      <c r="E387" t="n">
-        <v>809.9500122070312</v>
-      </c>
-      <c r="F387" t="n">
-        <v>930935</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>45505</v>
-      </c>
-      <c r="B388" t="n">
-        <v>776.8499755859375</v>
-      </c>
-      <c r="C388" t="n">
-        <v>812</v>
-      </c>
-      <c r="D388" t="n">
-        <v>775</v>
-      </c>
-      <c r="E388" t="n">
-        <v>797.9000244140625</v>
-      </c>
-      <c r="F388" t="n">
-        <v>1095180</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="B389" t="n">
-        <v>762.4000244140625</v>
-      </c>
-      <c r="C389" t="n">
-        <v>779.7000122070312</v>
-      </c>
-      <c r="D389" t="n">
-        <v>750.5499877929688</v>
-      </c>
-      <c r="E389" t="n">
-        <v>765</v>
-      </c>
-      <c r="F389" t="n">
-        <v>1352152</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B390" t="n">
-        <v>727.75</v>
-      </c>
-      <c r="C390" t="n">
-        <v>752.1500244140625</v>
-      </c>
-      <c r="D390" t="n">
-        <v>722.75</v>
-      </c>
-      <c r="E390" t="n">
-        <v>739.75</v>
-      </c>
-      <c r="F390" t="n">
-        <v>640236</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>45510</v>
-      </c>
-      <c r="B391" t="n">
-        <v>734.6500244140625</v>
-      </c>
-      <c r="C391" t="n">
-        <v>763.7000122070312</v>
-      </c>
-      <c r="D391" t="n">
-        <v>731</v>
-      </c>
-      <c r="E391" t="n">
-        <v>735.0499877929688</v>
-      </c>
-      <c r="F391" t="n">
-        <v>1154781</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>45511</v>
-      </c>
-      <c r="B392" t="n">
-        <v>745.25</v>
-      </c>
-      <c r="C392" t="n">
-        <v>752.9500122070312</v>
-      </c>
-      <c r="D392" t="n">
-        <v>732.5499877929688</v>
-      </c>
-      <c r="E392" t="n">
-        <v>746.0499877929688</v>
-      </c>
-      <c r="F392" t="n">
-        <v>349119</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>45512</v>
-      </c>
-      <c r="B393" t="n">
-        <v>753.0499877929688</v>
-      </c>
-      <c r="C393" t="n">
-        <v>761.1500244140625</v>
-      </c>
-      <c r="D393" t="n">
-        <v>739.6500244140625</v>
-      </c>
-      <c r="E393" t="n">
-        <v>749.75</v>
-      </c>
-      <c r="F393" t="n">
-        <v>464099</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>45513</v>
-      </c>
-      <c r="B394" t="n">
-        <v>772.3499755859375</v>
-      </c>
-      <c r="C394" t="n">
-        <v>777.8499755859375</v>
-      </c>
-      <c r="D394" t="n">
-        <v>757.5499877929688</v>
-      </c>
-      <c r="E394" t="n">
-        <v>761</v>
-      </c>
-      <c r="F394" t="n">
-        <v>429951</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>45516</v>
-      </c>
-      <c r="B395" t="n">
-        <v>767.1500244140625</v>
-      </c>
-      <c r="C395" t="n">
-        <v>785</v>
-      </c>
-      <c r="D395" t="n">
-        <v>765.0999755859375</v>
-      </c>
-      <c r="E395" t="n">
-        <v>780.7000122070312</v>
-      </c>
-      <c r="F395" t="n">
-        <v>357844</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>45517</v>
-      </c>
-      <c r="B396" t="n">
-        <v>748.25</v>
-      </c>
-      <c r="C396" t="n">
-        <v>766.9500122070312</v>
-      </c>
-      <c r="D396" t="n">
-        <v>744.1500244140625</v>
-      </c>
-      <c r="E396" t="n">
-        <v>766.9500122070312</v>
-      </c>
-      <c r="F396" t="n">
-        <v>501864</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>45518</v>
-      </c>
-      <c r="B397" t="n">
-        <v>740.3499755859375</v>
-      </c>
-      <c r="C397" t="n">
-        <v>753.1500244140625</v>
-      </c>
-      <c r="D397" t="n">
-        <v>731.7999877929688</v>
-      </c>
-      <c r="E397" t="n">
-        <v>752</v>
-      </c>
-      <c r="F397" t="n">
-        <v>619702</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>45520</v>
-      </c>
-      <c r="B398" t="n">
-        <v>797.5999755859375</v>
-      </c>
-      <c r="C398" t="n">
-        <v>805</v>
-      </c>
-      <c r="D398" t="n">
-        <v>747</v>
-      </c>
-      <c r="E398" t="n">
-        <v>747</v>
-      </c>
-      <c r="F398" t="n">
-        <v>4344166</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>45523</v>
-      </c>
-      <c r="B399" t="n">
-        <v>782.5499877929688</v>
-      </c>
-      <c r="C399" t="n">
-        <v>813.9000244140625</v>
-      </c>
-      <c r="D399" t="n">
-        <v>780</v>
-      </c>
-      <c r="E399" t="n">
-        <v>801.5999755859375</v>
-      </c>
-      <c r="F399" t="n">
-        <v>2138159</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>45524</v>
-      </c>
-      <c r="B400" t="n">
-        <v>790.75</v>
-      </c>
-      <c r="C400" t="n">
-        <v>811.5999755859375</v>
-      </c>
-      <c r="D400" t="n">
-        <v>783</v>
-      </c>
-      <c r="E400" t="n">
-        <v>790</v>
-      </c>
-      <c r="F400" t="n">
-        <v>961249</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>45525</v>
-      </c>
-      <c r="B401" t="n">
-        <v>800.5499877929688</v>
-      </c>
-      <c r="C401" t="n">
-        <v>805.0999755859375</v>
-      </c>
-      <c r="D401" t="n">
-        <v>788.5</v>
-      </c>
-      <c r="E401" t="n">
-        <v>793</v>
-      </c>
-      <c r="F401" t="n">
-        <v>464425</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>45526</v>
-      </c>
-      <c r="B402" t="n">
-        <v>786.5</v>
-      </c>
-      <c r="C402" t="n">
-        <v>824.7999877929688</v>
-      </c>
-      <c r="D402" t="n">
-        <v>781.2999877929688</v>
-      </c>
-      <c r="E402" t="n">
-        <v>813.5</v>
-      </c>
-      <c r="F402" t="n">
-        <v>1364423</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="B403" t="n">
-        <v>775.7999877929688</v>
-      </c>
-      <c r="C403" t="n">
-        <v>787.5</v>
-      </c>
-      <c r="D403" t="n">
-        <v>773.0499877929688</v>
-      </c>
-      <c r="E403" t="n">
-        <v>785</v>
-      </c>
-      <c r="F403" t="n">
-        <v>405748</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="B404" t="n">
-        <v>772.9500122070312</v>
-      </c>
-      <c r="C404" t="n">
-        <v>796</v>
-      </c>
-      <c r="D404" t="n">
-        <v>768</v>
-      </c>
-      <c r="E404" t="n">
-        <v>783.5499877929688</v>
-      </c>
-      <c r="F404" t="n">
-        <v>431973</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="B405" t="n">
-        <v>775.7999877929688</v>
-      </c>
-      <c r="C405" t="n">
-        <v>782.25</v>
-      </c>
-      <c r="D405" t="n">
-        <v>766.25</v>
-      </c>
-      <c r="E405" t="n">
-        <v>772.9500122070312</v>
-      </c>
-      <c r="F405" t="n">
-        <v>470072</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="B406" t="n">
-        <v>778</v>
-      </c>
-      <c r="C406" t="n">
-        <v>792.9500122070312</v>
-      </c>
-      <c r="D406" t="n">
-        <v>761.7999877929688</v>
-      </c>
-      <c r="E406" t="n">
-        <v>775.7999877929688</v>
-      </c>
-      <c r="F406" t="n">
-        <v>873504</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="B407" t="n">
-        <v>773.0999755859375</v>
-      </c>
-      <c r="C407" t="n">
-        <v>786</v>
-      </c>
-      <c r="D407" t="n">
-        <v>770.0499877929688</v>
-      </c>
-      <c r="E407" t="n">
-        <v>776.0999755859375</v>
-      </c>
-      <c r="F407" t="n">
-        <v>259644</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>45534</v>
-      </c>
-      <c r="B408" t="n">
-        <v>767.9000244140625</v>
-      </c>
-      <c r="C408" t="n">
-        <v>784.7999877929688</v>
-      </c>
-      <c r="D408" t="n">
-        <v>760</v>
-      </c>
-      <c r="E408" t="n">
-        <v>774.5</v>
-      </c>
-      <c r="F408" t="n">
-        <v>505350</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>45537</v>
-      </c>
-      <c r="B409" t="n">
-        <v>789.7999877929688</v>
-      </c>
-      <c r="C409" t="n">
-        <v>797</v>
-      </c>
-      <c r="D409" t="n">
-        <v>770.2000122070312</v>
-      </c>
-      <c r="E409" t="n">
-        <v>774</v>
-      </c>
-      <c r="F409" t="n">
-        <v>807566</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>45538</v>
-      </c>
-      <c r="B410" t="n">
-        <v>794.7000122070312</v>
-      </c>
-      <c r="C410" t="n">
-        <v>803</v>
-      </c>
-      <c r="D410" t="n">
-        <v>783.9500122070312</v>
-      </c>
-      <c r="E410" t="n">
-        <v>791.8499755859375</v>
-      </c>
-      <c r="F410" t="n">
-        <v>483590</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>45539</v>
-      </c>
-      <c r="B411" t="n">
-        <v>790.5</v>
-      </c>
-      <c r="C411" t="n">
-        <v>796.1500244140625</v>
-      </c>
-      <c r="D411" t="n">
-        <v>781</v>
-      </c>
-      <c r="E411" t="n">
-        <v>784</v>
-      </c>
-      <c r="F411" t="n">
-        <v>393160</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>45540</v>
-      </c>
-      <c r="B412" t="n">
-        <v>798.5999755859375</v>
-      </c>
-      <c r="C412" t="n">
-        <v>810</v>
-      </c>
-      <c r="D412" t="n">
-        <v>786.4500122070312</v>
-      </c>
-      <c r="E412" t="n">
-        <v>795</v>
-      </c>
-      <c r="F412" t="n">
-        <v>594657</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>45541</v>
-      </c>
-      <c r="B413" t="n">
-        <v>778.5999755859375</v>
-      </c>
-      <c r="C413" t="n">
-        <v>814.7999877929688</v>
-      </c>
-      <c r="D413" t="n">
-        <v>775</v>
-      </c>
-      <c r="E413" t="n">
-        <v>798.5</v>
-      </c>
-      <c r="F413" t="n">
-        <v>771824</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>45544</v>
-      </c>
-      <c r="B414" t="n">
-        <v>764.4500122070312</v>
-      </c>
-      <c r="C414" t="n">
-        <v>777.75</v>
-      </c>
-      <c r="D414" t="n">
-        <v>755.2999877929688</v>
-      </c>
-      <c r="E414" t="n">
-        <v>777.75</v>
-      </c>
-      <c r="F414" t="n">
-        <v>419878</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>45545</v>
-      </c>
-      <c r="B415" t="n">
-        <v>792.5999755859375</v>
-      </c>
-      <c r="C415" t="n">
-        <v>796.0999755859375</v>
-      </c>
-      <c r="D415" t="n">
-        <v>766.2000122070312</v>
-      </c>
-      <c r="E415" t="n">
-        <v>766.2000122070312</v>
-      </c>
-      <c r="F415" t="n">
-        <v>445523</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>45546</v>
-      </c>
-      <c r="B416" t="n">
-        <v>766.0999755859375</v>
-      </c>
-      <c r="C416" t="n">
-        <v>807.75</v>
-      </c>
-      <c r="D416" t="n">
-        <v>761.4500122070312</v>
-      </c>
-      <c r="E416" t="n">
-        <v>793</v>
-      </c>
-      <c r="F416" t="n">
-        <v>894510</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>45547</v>
-      </c>
-      <c r="B417" t="n">
-        <v>770.4000244140625</v>
-      </c>
-      <c r="C417" t="n">
-        <v>778.7999877929688</v>
-      </c>
-      <c r="D417" t="n">
-        <v>759</v>
-      </c>
-      <c r="E417" t="n">
-        <v>774</v>
-      </c>
-      <c r="F417" t="n">
-        <v>387816</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>45548</v>
-      </c>
-      <c r="B418" t="n">
-        <v>789.8499755859375</v>
-      </c>
-      <c r="C418" t="n">
-        <v>794</v>
-      </c>
-      <c r="D418" t="n">
-        <v>770.0499877929688</v>
-      </c>
-      <c r="E418" t="n">
-        <v>778</v>
-      </c>
-      <c r="F418" t="n">
-        <v>750612</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B419" t="n">
-        <v>773.6500244140625</v>
-      </c>
-      <c r="C419" t="n">
-        <v>797.7000122070312</v>
-      </c>
-      <c r="D419" t="n">
-        <v>768.2999877929688</v>
-      </c>
-      <c r="E419" t="n">
-        <v>793.9500122070312</v>
-      </c>
-      <c r="F419" t="n">
-        <v>349950</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>45552</v>
-      </c>
-      <c r="B420" t="n">
-        <v>769.2000122070312</v>
-      </c>
-      <c r="C420" t="n">
-        <v>784.5499877929688</v>
-      </c>
-      <c r="D420" t="n">
-        <v>767.4000244140625</v>
-      </c>
-      <c r="E420" t="n">
-        <v>778.5</v>
-      </c>
-      <c r="F420" t="n">
-        <v>308667</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>45553</v>
-      </c>
-      <c r="B421" t="n">
-        <v>744.5999755859375</v>
-      </c>
-      <c r="C421" t="n">
-        <v>772.1500244140625</v>
-      </c>
-      <c r="D421" t="n">
-        <v>738</v>
-      </c>
-      <c r="E421" t="n">
-        <v>771.4500122070312</v>
-      </c>
-      <c r="F421" t="n">
-        <v>893464</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>45554</v>
-      </c>
-      <c r="B422" t="n">
-        <v>724.5999755859375</v>
-      </c>
-      <c r="C422" t="n">
-        <v>761.2000122070312</v>
-      </c>
-      <c r="D422" t="n">
-        <v>713.1500244140625</v>
-      </c>
-      <c r="E422" t="n">
-        <v>755</v>
-      </c>
-      <c r="F422" t="n">
-        <v>795146</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>45555</v>
-      </c>
-      <c r="B423" t="n">
-        <v>724.0999755859375</v>
-      </c>
-      <c r="C423" t="n">
-        <v>745</v>
-      </c>
-      <c r="D423" t="n">
-        <v>718.7000122070312</v>
-      </c>
-      <c r="E423" t="n">
-        <v>733.9000244140625</v>
-      </c>
-      <c r="F423" t="n">
-        <v>640787</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>45558</v>
-      </c>
-      <c r="B424" t="n">
-        <v>719.9000244140625</v>
-      </c>
-      <c r="C424" t="n">
-        <v>737.2999877929688</v>
-      </c>
-      <c r="D424" t="n">
-        <v>716.1500244140625</v>
-      </c>
-      <c r="E424" t="n">
-        <v>737.2999877929688</v>
-      </c>
-      <c r="F424" t="n">
-        <v>402766</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>45559</v>
-      </c>
-      <c r="B425" t="n">
-        <v>710.25</v>
-      </c>
-      <c r="C425" t="n">
-        <v>726.4000244140625</v>
-      </c>
-      <c r="D425" t="n">
-        <v>691</v>
-      </c>
-      <c r="E425" t="n">
-        <v>720</v>
-      </c>
-      <c r="F425" t="n">
-        <v>2103532</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>45560</v>
-      </c>
-      <c r="B426" t="n">
-        <v>682.7000122070312</v>
-      </c>
-      <c r="C426" t="n">
-        <v>715</v>
-      </c>
-      <c r="D426" t="n">
-        <v>680</v>
-      </c>
-      <c r="E426" t="n">
-        <v>710.25</v>
-      </c>
-      <c r="F426" t="n">
-        <v>933910</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>45561</v>
-      </c>
-      <c r="B427" t="n">
-        <v>685</v>
-      </c>
-      <c r="C427" t="n">
-        <v>692.25</v>
-      </c>
-      <c r="D427" t="n">
-        <v>673.4500122070312</v>
-      </c>
-      <c r="E427" t="n">
-        <v>688</v>
-      </c>
-      <c r="F427" t="n">
-        <v>868856</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>45562</v>
-      </c>
-      <c r="B428" t="n">
-        <v>676.7000122070312</v>
-      </c>
-      <c r="C428" t="n">
-        <v>703.2999877929688</v>
-      </c>
-      <c r="D428" t="n">
-        <v>674.25</v>
-      </c>
-      <c r="E428" t="n">
-        <v>693.9500122070312</v>
-      </c>
-      <c r="F428" t="n">
-        <v>2199235</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B429" t="n">
-        <v>675.3499755859375</v>
-      </c>
-      <c r="C429" t="n">
-        <v>685</v>
-      </c>
-      <c r="D429" t="n">
-        <v>665.0499877929688</v>
-      </c>
-      <c r="E429" t="n">
-        <v>675</v>
-      </c>
-      <c r="F429" t="n">
-        <v>951560</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B430" t="n">
-        <v>678.75</v>
-      </c>
-      <c r="C430" t="n">
-        <v>682.4500122070312</v>
-      </c>
-      <c r="D430" t="n">
-        <v>659.5999755859375</v>
-      </c>
-      <c r="E430" t="n">
-        <v>679.4500122070312</v>
-      </c>
-      <c r="F430" t="n">
-        <v>1196173</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>45568</v>
-      </c>
-      <c r="B431" t="n">
-        <v>667.3499755859375</v>
-      </c>
-      <c r="C431" t="n">
-        <v>682.8499755859375</v>
-      </c>
-      <c r="D431" t="n">
-        <v>660</v>
-      </c>
-      <c r="E431" t="n">
-        <v>664.9500122070312</v>
-      </c>
-      <c r="F431" t="n">
-        <v>788793</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>45569</v>
-      </c>
-      <c r="B432" t="n">
-        <v>674.1500244140625</v>
-      </c>
-      <c r="C432" t="n">
-        <v>686.0999755859375</v>
-      </c>
-      <c r="D432" t="n">
-        <v>660</v>
-      </c>
-      <c r="E432" t="n">
-        <v>660</v>
-      </c>
-      <c r="F432" t="n">
-        <v>748609</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>45572</v>
-      </c>
-      <c r="B433" t="n">
-        <v>667.7000122070312</v>
-      </c>
-      <c r="C433" t="n">
-        <v>684.1500244140625</v>
-      </c>
-      <c r="D433" t="n">
-        <v>661.7999877929688</v>
-      </c>
-      <c r="E433" t="n">
-        <v>684.0999755859375</v>
-      </c>
-      <c r="F433" t="n">
-        <v>608540</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>45573</v>
-      </c>
-      <c r="B434" t="n">
-        <v>681.6500244140625</v>
-      </c>
-      <c r="C434" t="n">
-        <v>683.6500244140625</v>
-      </c>
-      <c r="D434" t="n">
-        <v>663.2999877929688</v>
-      </c>
-      <c r="E434" t="n">
-        <v>663.2999877929688</v>
-      </c>
-      <c r="F434" t="n">
-        <v>458164</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>45574</v>
-      </c>
-      <c r="B435" t="n">
-        <v>687.9000244140625</v>
-      </c>
-      <c r="C435" t="n">
-        <v>694.0499877929688</v>
-      </c>
-      <c r="D435" t="n">
-        <v>677.3499755859375</v>
-      </c>
-      <c r="E435" t="n">
-        <v>689.75</v>
-      </c>
-      <c r="F435" t="n">
-        <v>403272</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>45575</v>
-      </c>
-      <c r="B436" t="n">
-        <v>688.0499877929688</v>
-      </c>
-      <c r="C436" t="n">
-        <v>695</v>
-      </c>
-      <c r="D436" t="n">
-        <v>683.1500244140625</v>
-      </c>
-      <c r="E436" t="n">
-        <v>690</v>
-      </c>
-      <c r="F436" t="n">
-        <v>282712</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>45576</v>
-      </c>
-      <c r="B437" t="n">
-        <v>694.9500122070312</v>
-      </c>
-      <c r="C437" t="n">
-        <v>708.9500122070312</v>
-      </c>
-      <c r="D437" t="n">
-        <v>684.2999877929688</v>
-      </c>
-      <c r="E437" t="n">
-        <v>687.5499877929688</v>
-      </c>
-      <c r="F437" t="n">
-        <v>619590</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>45579</v>
-      </c>
-      <c r="B438" t="n">
-        <v>722.4500122070312</v>
-      </c>
-      <c r="C438" t="n">
-        <v>726</v>
-      </c>
-      <c r="D438" t="n">
-        <v>689.7000122070312</v>
-      </c>
-      <c r="E438" t="n">
-        <v>699</v>
-      </c>
-      <c r="F438" t="n">
-        <v>1400313</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>45580</v>
-      </c>
-      <c r="B439" t="n">
-        <v>708.3499755859375</v>
-      </c>
-      <c r="C439" t="n">
-        <v>725.5999755859375</v>
-      </c>
-      <c r="D439" t="n">
-        <v>705.2999877929688</v>
-      </c>
-      <c r="E439" t="n">
-        <v>724.4500122070312</v>
-      </c>
-      <c r="F439" t="n">
-        <v>651845</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>45581</v>
-      </c>
-      <c r="B440" t="n">
-        <v>701.7999877929688</v>
-      </c>
-      <c r="C440" t="n">
-        <v>709.2999877929688</v>
-      </c>
-      <c r="D440" t="n">
-        <v>692.0999755859375</v>
-      </c>
-      <c r="E440" t="n">
-        <v>706.9000244140625</v>
-      </c>
-      <c r="F440" t="n">
-        <v>454397</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>45582</v>
-      </c>
-      <c r="B441" t="n">
-        <v>695.0999755859375</v>
-      </c>
-      <c r="C441" t="n">
-        <v>704.9500122070312</v>
-      </c>
-      <c r="D441" t="n">
-        <v>691</v>
-      </c>
-      <c r="E441" t="n">
-        <v>702.0999755859375</v>
-      </c>
-      <c r="F441" t="n">
-        <v>279865</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>45583</v>
-      </c>
-      <c r="B442" t="n">
-        <v>691.5499877929688</v>
-      </c>
-      <c r="C442" t="n">
-        <v>696</v>
-      </c>
-      <c r="D442" t="n">
-        <v>675</v>
-      </c>
-      <c r="E442" t="n">
-        <v>690.0499877929688</v>
-      </c>
-      <c r="F442" t="n">
-        <v>350811</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>45586</v>
-      </c>
-      <c r="B443" t="n">
-        <v>682.0999755859375</v>
-      </c>
-      <c r="C443" t="n">
-        <v>699.2999877929688</v>
-      </c>
-      <c r="D443" t="n">
-        <v>679.4000244140625</v>
-      </c>
-      <c r="E443" t="n">
-        <v>695</v>
-      </c>
-      <c r="F443" t="n">
-        <v>249134</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>45587</v>
-      </c>
-      <c r="B444" t="n">
-        <v>656.0499877929688</v>
-      </c>
-      <c r="C444" t="n">
-        <v>684.75</v>
-      </c>
-      <c r="D444" t="n">
-        <v>649.2000122070312</v>
-      </c>
-      <c r="E444" t="n">
-        <v>683.0499877929688</v>
-      </c>
-      <c r="F444" t="n">
-        <v>631291</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>45588</v>
-      </c>
-      <c r="B445" t="n">
-        <v>691.9500122070312</v>
-      </c>
-      <c r="C445" t="n">
-        <v>701.9000244140625</v>
-      </c>
-      <c r="D445" t="n">
-        <v>636.4000244140625</v>
-      </c>
-      <c r="E445" t="n">
-        <v>650</v>
-      </c>
-      <c r="F445" t="n">
-        <v>1710470</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>45589</v>
-      </c>
-      <c r="B446" t="n">
-        <v>686.25</v>
-      </c>
-      <c r="C446" t="n">
-        <v>694</v>
-      </c>
-      <c r="D446" t="n">
-        <v>677.3499755859375</v>
-      </c>
-      <c r="E446" t="n">
-        <v>689</v>
-      </c>
-      <c r="F446" t="n">
-        <v>489799</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>45590</v>
-      </c>
-      <c r="B447" t="n">
-        <v>686.0499877929688</v>
-      </c>
-      <c r="C447" t="n">
-        <v>689</v>
-      </c>
-      <c r="D447" t="n">
-        <v>671.9500122070312</v>
-      </c>
-      <c r="E447" t="n">
-        <v>683</v>
-      </c>
-      <c r="F447" t="n">
-        <v>569848</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>45593</v>
-      </c>
-      <c r="B448" t="n">
-        <v>686.9500122070312</v>
-      </c>
-      <c r="C448" t="n">
-        <v>694.7000122070312</v>
-      </c>
-      <c r="D448" t="n">
-        <v>682.0999755859375</v>
-      </c>
-      <c r="E448" t="n">
-        <v>686</v>
-      </c>
-      <c r="F448" t="n">
-        <v>325728</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>45594</v>
-      </c>
-      <c r="B449" t="n">
-        <v>699.2000122070312</v>
-      </c>
-      <c r="C449" t="n">
-        <v>706.2999877929688</v>
-      </c>
-      <c r="D449" t="n">
-        <v>685.25</v>
-      </c>
-      <c r="E449" t="n">
-        <v>687.9500122070312</v>
-      </c>
-      <c r="F449" t="n">
-        <v>468958</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>45595</v>
-      </c>
-      <c r="B450" t="n">
-        <v>701.5</v>
-      </c>
-      <c r="C450" t="n">
-        <v>706.3499755859375</v>
-      </c>
-      <c r="D450" t="n">
-        <v>695</v>
-      </c>
-      <c r="E450" t="n">
-        <v>700</v>
-      </c>
-      <c r="F450" t="n">
-        <v>508794</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B451" t="n">
-        <v>703.7999877929688</v>
-      </c>
-      <c r="C451" t="n">
-        <v>709</v>
-      </c>
-      <c r="D451" t="n">
-        <v>693.5499877929688</v>
-      </c>
-      <c r="E451" t="n">
-        <v>701.0499877929688</v>
-      </c>
-      <c r="F451" t="n">
-        <v>575179</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B452" t="n">
-        <v>697.7999877929688</v>
-      </c>
-      <c r="C452" t="n">
-        <v>703.7999877929688</v>
-      </c>
-      <c r="D452" t="n">
-        <v>695</v>
-      </c>
-      <c r="E452" t="n">
-        <v>702.5999755859375</v>
-      </c>
-      <c r="F452" t="n">
-        <v>59955</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B453" t="n">
-        <v>712.7999877929688</v>
-      </c>
-      <c r="C453" t="n">
-        <v>729.75</v>
-      </c>
-      <c r="D453" t="n">
-        <v>696</v>
-      </c>
-      <c r="E453" t="n">
-        <v>700</v>
-      </c>
-      <c r="F453" t="n">
-        <v>2263937</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>45601</v>
-      </c>
-      <c r="B454" t="n">
-        <v>705.1500244140625</v>
-      </c>
-      <c r="C454" t="n">
-        <v>712.0499877929688</v>
-      </c>
-      <c r="D454" t="n">
-        <v>691.5999755859375</v>
-      </c>
-      <c r="E454" t="n">
-        <v>711</v>
-      </c>
-      <c r="F454" t="n">
-        <v>384696</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>45602</v>
-      </c>
-      <c r="B455" t="n">
-        <v>747.5999755859375</v>
-      </c>
-      <c r="C455" t="n">
-        <v>750</v>
-      </c>
-      <c r="D455" t="n">
-        <v>702</v>
-      </c>
-      <c r="E455" t="n">
-        <v>706.8499755859375</v>
-      </c>
-      <c r="F455" t="n">
-        <v>1176310</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>45603</v>
-      </c>
-      <c r="B456" t="n">
-        <v>737.2999877929688</v>
-      </c>
-      <c r="C456" t="n">
-        <v>751</v>
-      </c>
-      <c r="D456" t="n">
-        <v>730</v>
-      </c>
-      <c r="E456" t="n">
-        <v>748</v>
-      </c>
-      <c r="F456" t="n">
-        <v>519890</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>45604</v>
-      </c>
-      <c r="B457" t="n">
-        <v>728.5499877929688</v>
-      </c>
-      <c r="C457" t="n">
-        <v>744</v>
-      </c>
-      <c r="D457" t="n">
-        <v>724.0999755859375</v>
-      </c>
-      <c r="E457" t="n">
-        <v>737.9000244140625</v>
-      </c>
-      <c r="F457" t="n">
-        <v>457973</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B458" t="n">
-        <v>747.0999755859375</v>
-      </c>
-      <c r="C458" t="n">
-        <v>749.75</v>
-      </c>
-      <c r="D458" t="n">
-        <v>718.1500244140625</v>
-      </c>
-      <c r="E458" t="n">
-        <v>724.5499877929688</v>
-      </c>
-      <c r="F458" t="n">
-        <v>683340</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>45608</v>
-      </c>
-      <c r="B459" t="n">
-        <v>725.7999877929688</v>
-      </c>
-      <c r="C459" t="n">
-        <v>758.9500122070312</v>
-      </c>
-      <c r="D459" t="n">
-        <v>722.2000122070312</v>
-      </c>
-      <c r="E459" t="n">
-        <v>749.3499755859375</v>
-      </c>
-      <c r="F459" t="n">
-        <v>601011</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>45609</v>
-      </c>
-      <c r="B460" t="n">
-        <v>698</v>
-      </c>
-      <c r="C460" t="n">
-        <v>725.0499877929688</v>
-      </c>
-      <c r="D460" t="n">
-        <v>694.2000122070312</v>
-      </c>
-      <c r="E460" t="n">
-        <v>724.4500122070312</v>
-      </c>
-      <c r="F460" t="n">
-        <v>454300</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>45610</v>
-      </c>
-      <c r="B461" t="n">
-        <v>705.6500244140625</v>
-      </c>
-      <c r="C461" t="n">
-        <v>710</v>
-      </c>
-      <c r="D461" t="n">
-        <v>696</v>
-      </c>
-      <c r="E461" t="n">
-        <v>698</v>
-      </c>
-      <c r="F461" t="n">
-        <v>320758</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B462" t="n">
-        <v>700.1500244140625</v>
-      </c>
-      <c r="C462" t="n">
-        <v>707.2999877929688</v>
-      </c>
-      <c r="D462" t="n">
-        <v>682.0999755859375</v>
-      </c>
-      <c r="E462" t="n">
-        <v>705.7000122070312</v>
-      </c>
-      <c r="F462" t="n">
-        <v>272763</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>45615</v>
-      </c>
-      <c r="B463" t="n">
-        <v>702.5999755859375</v>
-      </c>
-      <c r="C463" t="n">
-        <v>718.5</v>
-      </c>
-      <c r="D463" t="n">
-        <v>698.7999877929688</v>
-      </c>
-      <c r="E463" t="n">
-        <v>698.8499755859375</v>
-      </c>
-      <c r="F463" t="n">
-        <v>327598</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>45617</v>
-      </c>
-      <c r="B464" t="n">
-        <v>713.7000122070312</v>
-      </c>
-      <c r="C464" t="n">
-        <v>715</v>
-      </c>
-      <c r="D464" t="n">
-        <v>698.9500122070312</v>
-      </c>
-      <c r="E464" t="n">
-        <v>702.5999755859375</v>
-      </c>
-      <c r="F464" t="n">
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>45618</v>
-      </c>
-      <c r="B465" t="n">
-        <v>725.7999877929688</v>
-      </c>
-      <c r="C465" t="n">
-        <v>730.9000244140625</v>
-      </c>
-      <c r="D465" t="n">
-        <v>714.0999755859375</v>
-      </c>
-      <c r="E465" t="n">
-        <v>715.5</v>
-      </c>
-      <c r="F465" t="n">
-        <v>379960</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B466" t="n">
-        <v>727.2999877929688</v>
-      </c>
-      <c r="C466" t="n">
-        <v>739.9000244140625</v>
-      </c>
-      <c r="D466" t="n">
-        <v>722.6500244140625</v>
-      </c>
-      <c r="E466" t="n">
-        <v>735</v>
-      </c>
-      <c r="F466" t="n">
-        <v>282698</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>45622</v>
-      </c>
-      <c r="B467" t="n">
-        <v>747.8499755859375</v>
-      </c>
-      <c r="C467" t="n">
-        <v>752</v>
-      </c>
-      <c r="D467" t="n">
-        <v>725.5499877929688</v>
-      </c>
-      <c r="E467" t="n">
-        <v>727.7999877929688</v>
-      </c>
-      <c r="F467" t="n">
-        <v>714690</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>45623</v>
-      </c>
-      <c r="B468" t="n">
-        <v>770.25</v>
-      </c>
-      <c r="C468" t="n">
-        <v>774.6500244140625</v>
-      </c>
-      <c r="D468" t="n">
-        <v>750</v>
-      </c>
-      <c r="E468" t="n">
-        <v>750</v>
-      </c>
-      <c r="F468" t="n">
-        <v>1017660</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>45624</v>
-      </c>
-      <c r="B469" t="n">
-        <v>755.25</v>
-      </c>
-      <c r="C469" t="n">
-        <v>775</v>
-      </c>
-      <c r="D469" t="n">
-        <v>753</v>
-      </c>
-      <c r="E469" t="n">
-        <v>775</v>
-      </c>
-      <c r="F469" t="n">
-        <v>276653</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>45625</v>
-      </c>
-      <c r="B470" t="n">
-        <v>759.0999755859375</v>
-      </c>
-      <c r="C470" t="n">
-        <v>772.2999877929688</v>
-      </c>
-      <c r="D470" t="n">
-        <v>751.2000122070312</v>
-      </c>
-      <c r="E470" t="n">
-        <v>754.0499877929688</v>
-      </c>
-      <c r="F470" t="n">
-        <v>253304</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B471" t="n">
-        <v>768.2999877929688</v>
-      </c>
-      <c r="C471" t="n">
-        <v>771</v>
-      </c>
-      <c r="D471" t="n">
-        <v>751</v>
-      </c>
-      <c r="E471" t="n">
-        <v>762.9500122070312</v>
-      </c>
-      <c r="F471" t="n">
-        <v>329294</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>45629</v>
-      </c>
-      <c r="B472" t="n">
-        <v>772.5</v>
-      </c>
-      <c r="C472" t="n">
-        <v>781</v>
-      </c>
-      <c r="D472" t="n">
-        <v>765.6500244140625</v>
-      </c>
-      <c r="E472" t="n">
-        <v>768.5499877929688</v>
-      </c>
-      <c r="F472" t="n">
-        <v>313731</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>45630</v>
-      </c>
-      <c r="B473" t="n">
-        <v>770.9500122070312</v>
-      </c>
-      <c r="C473" t="n">
-        <v>779.7000122070312</v>
-      </c>
-      <c r="D473" t="n">
-        <v>768</v>
-      </c>
-      <c r="E473" t="n">
-        <v>774.4000244140625</v>
-      </c>
-      <c r="F473" t="n">
-        <v>222674</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>45631</v>
-      </c>
-      <c r="B474" t="n">
-        <v>773.5499877929688</v>
-      </c>
-      <c r="C474" t="n">
-        <v>779</v>
-      </c>
-      <c r="D474" t="n">
-        <v>763.5499877929688</v>
-      </c>
-      <c r="E474" t="n">
-        <v>771</v>
-      </c>
-      <c r="F474" t="n">
-        <v>265168</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>45632</v>
-      </c>
-      <c r="B475" t="n">
-        <v>779.8499755859375</v>
-      </c>
-      <c r="C475" t="n">
-        <v>795</v>
-      </c>
-      <c r="D475" t="n">
-        <v>775</v>
-      </c>
-      <c r="E475" t="n">
-        <v>775</v>
-      </c>
-      <c r="F475" t="n">
-        <v>789239</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B476" t="n">
-        <v>782.5499877929688</v>
-      </c>
-      <c r="C476" t="n">
-        <v>791</v>
-      </c>
-      <c r="D476" t="n">
-        <v>777.3499755859375</v>
-      </c>
-      <c r="E476" t="n">
-        <v>784.25</v>
-      </c>
-      <c r="F476" t="n">
-        <v>237737</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>45636</v>
-      </c>
-      <c r="B477" t="n">
-        <v>803.0999755859375</v>
-      </c>
-      <c r="C477" t="n">
-        <v>817.9500122070312</v>
-      </c>
-      <c r="D477" t="n">
-        <v>775.0499877929688</v>
-      </c>
-      <c r="E477" t="n">
-        <v>779</v>
-      </c>
-      <c r="F477" t="n">
-        <v>1245525</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>45637</v>
-      </c>
-      <c r="B478" t="n">
-        <v>805.9500122070312</v>
-      </c>
-      <c r="C478" t="n">
-        <v>815.2999877929688</v>
-      </c>
-      <c r="D478" t="n">
-        <v>794.7000122070312</v>
-      </c>
-      <c r="E478" t="n">
-        <v>803.0999755859375</v>
-      </c>
-      <c r="F478" t="n">
-        <v>476779</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>45638</v>
-      </c>
-      <c r="B479" t="n">
-        <v>793.7999877929688</v>
-      </c>
-      <c r="C479" t="n">
-        <v>815.75</v>
-      </c>
-      <c r="D479" t="n">
-        <v>791.5</v>
-      </c>
-      <c r="E479" t="n">
-        <v>805.9500122070312</v>
-      </c>
-      <c r="F479" t="n">
-        <v>527433</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>45639</v>
-      </c>
-      <c r="B480" t="n">
-        <v>801.2000122070312</v>
-      </c>
-      <c r="C480" t="n">
-        <v>817.1500244140625</v>
-      </c>
-      <c r="D480" t="n">
-        <v>781.5499877929688</v>
-      </c>
-      <c r="E480" t="n">
-        <v>790</v>
-      </c>
-      <c r="F480" t="n">
-        <v>854707</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B481" t="n">
-        <v>811.3499755859375</v>
-      </c>
-      <c r="C481" t="n">
-        <v>819.4000244140625</v>
-      </c>
-      <c r="D481" t="n">
-        <v>798.7999877929688</v>
-      </c>
-      <c r="E481" t="n">
-        <v>807</v>
-      </c>
-      <c r="F481" t="n">
-        <v>546635</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>45643</v>
-      </c>
-      <c r="B482" t="n">
-        <v>799.5999755859375</v>
-      </c>
-      <c r="C482" t="n">
-        <v>838</v>
-      </c>
-      <c r="D482" t="n">
-        <v>796.25</v>
-      </c>
-      <c r="E482" t="n">
-        <v>819</v>
-      </c>
-      <c r="F482" t="n">
-        <v>1985805</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>45644</v>
-      </c>
-      <c r="B483" t="n">
-        <v>789.8499755859375</v>
-      </c>
-      <c r="C483" t="n">
-        <v>809.5</v>
-      </c>
-      <c r="D483" t="n">
-        <v>784.0499877929688</v>
-      </c>
-      <c r="E483" t="n">
-        <v>804.5499877929688</v>
-      </c>
-      <c r="F483" t="n">
-        <v>303227</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>45645</v>
-      </c>
-      <c r="B484" t="n">
-        <v>778.0999755859375</v>
-      </c>
-      <c r="C484" t="n">
-        <v>788.8499755859375</v>
-      </c>
-      <c r="D484" t="n">
-        <v>764</v>
-      </c>
-      <c r="E484" t="n">
-        <v>771</v>
-      </c>
-      <c r="F484" t="n">
-        <v>391203</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>45646</v>
-      </c>
-      <c r="B485" t="n">
-        <v>767.9000244140625</v>
-      </c>
-      <c r="C485" t="n">
-        <v>793.2000122070312</v>
-      </c>
-      <c r="D485" t="n">
-        <v>746.1500244140625</v>
-      </c>
-      <c r="E485" t="n">
-        <v>786</v>
-      </c>
-      <c r="F485" t="n">
-        <v>684057</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B486" t="n">
-        <v>741.4500122070312</v>
-      </c>
-      <c r="C486" t="n">
-        <v>779.9000244140625</v>
-      </c>
-      <c r="D486" t="n">
-        <v>732.5</v>
-      </c>
-      <c r="E486" t="n">
-        <v>768</v>
-      </c>
-      <c r="F486" t="n">
-        <v>698845</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>45650</v>
-      </c>
-      <c r="B487" t="n">
-        <v>735.7999877929688</v>
-      </c>
-      <c r="C487" t="n">
-        <v>751</v>
-      </c>
-      <c r="D487" t="n">
-        <v>730</v>
-      </c>
-      <c r="E487" t="n">
-        <v>743.5</v>
-      </c>
-      <c r="F487" t="n">
-        <v>355079</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>45652</v>
-      </c>
-      <c r="B488" t="n">
-        <v>730.2000122070312</v>
-      </c>
-      <c r="C488" t="n">
-        <v>741.3499755859375</v>
-      </c>
-      <c r="D488" t="n">
-        <v>723.5</v>
-      </c>
-      <c r="E488" t="n">
-        <v>736.9500122070312</v>
-      </c>
-      <c r="F488" t="n">
-        <v>176741</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>45653</v>
-      </c>
-      <c r="B489" t="n">
-        <v>739.2999877929688</v>
-      </c>
-      <c r="C489" t="n">
-        <v>767</v>
-      </c>
-      <c r="D489" t="n">
-        <v>731</v>
-      </c>
-      <c r="E489" t="n">
-        <v>731</v>
-      </c>
-      <c r="F489" t="n">
-        <v>1601832</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>45656</v>
-      </c>
-      <c r="B490" t="n">
-        <v>761.2000122070312</v>
-      </c>
-      <c r="C490" t="n">
-        <v>764.9000244140625</v>
-      </c>
-      <c r="D490" t="n">
-        <v>734.0499877929688</v>
-      </c>
-      <c r="E490" t="n">
-        <v>740</v>
-      </c>
-      <c r="F490" t="n">
-        <v>479601</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/data/raw/ZENSARTECH.NS_data.xlsx
+++ b/src/data/raw/ZENSARTECH.NS_data.xlsx
@@ -501,16 +501,16 @@
         <v>44931</v>
       </c>
       <c r="B4" t="n">
-        <v>204.5722503662109</v>
+        <v>204.572265625</v>
       </c>
       <c r="C4" t="n">
-        <v>208.857499782654</v>
+        <v>208.8575153610744</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7931100557126</v>
+        <v>203.7931252563865</v>
       </c>
       <c r="E4" t="n">
-        <v>207.6400976915207</v>
+        <v>207.6401131791366</v>
       </c>
       <c r="F4" t="n">
         <v>1329676</v>
@@ -521,16 +521,16 @@
         <v>44932</v>
       </c>
       <c r="B5" t="n">
-        <v>203.30615234375</v>
+        <v>203.3061370849609</v>
       </c>
       <c r="C5" t="n">
-        <v>205.6922575068688</v>
+        <v>205.6922420689948</v>
       </c>
       <c r="D5" t="n">
-        <v>202.3322306558757</v>
+        <v>202.3322154701827</v>
       </c>
       <c r="E5" t="n">
-        <v>204.5722535101596</v>
+        <v>204.5722381563456</v>
       </c>
       <c r="F5" t="n">
         <v>528468</v>
@@ -581,16 +581,16 @@
         <v>44937</v>
       </c>
       <c r="B8" t="n">
-        <v>208.0296936035156</v>
+        <v>208.0296783447266</v>
       </c>
       <c r="C8" t="n">
-        <v>209.10099862157</v>
+        <v>209.1009832842017</v>
       </c>
       <c r="D8" t="n">
-        <v>200.0435232934497</v>
+        <v>200.043508620439</v>
       </c>
       <c r="E8" t="n">
-        <v>201.9913668108576</v>
+        <v>201.9913519949744</v>
       </c>
       <c r="F8" t="n">
         <v>1212928</v>
@@ -601,16 +601,16 @@
         <v>44938</v>
       </c>
       <c r="B9" t="n">
-        <v>206.8609771728516</v>
+        <v>206.8609619140625</v>
       </c>
       <c r="C9" t="n">
-        <v>209.3931797090284</v>
+        <v>209.3931642634552</v>
       </c>
       <c r="D9" t="n">
-        <v>203.6470472334529</v>
+        <v>203.6470322117346</v>
       </c>
       <c r="E9" t="n">
-        <v>208.4192579429399</v>
+        <v>208.4192425692066</v>
       </c>
       <c r="F9" t="n">
         <v>795992</v>
@@ -621,16 +621,16 @@
         <v>44939</v>
       </c>
       <c r="B10" t="n">
-        <v>205.6922607421875</v>
+        <v>205.6922760009766</v>
       </c>
       <c r="C10" t="n">
-        <v>208.419244483301</v>
+        <v>208.4192599443849</v>
       </c>
       <c r="D10" t="n">
-        <v>204.0365968189326</v>
+        <v>204.0366119549002</v>
       </c>
       <c r="E10" t="n">
-        <v>207.9322836317045</v>
+        <v>207.9322990566644</v>
       </c>
       <c r="F10" t="n">
         <v>572396</v>
@@ -661,16 +661,16 @@
         <v>44943</v>
       </c>
       <c r="B12" t="n">
-        <v>211.1462249755859</v>
+        <v>211.1462097167969</v>
       </c>
       <c r="C12" t="n">
-        <v>212.314928029262</v>
+        <v>212.3149126860149</v>
       </c>
       <c r="D12" t="n">
-        <v>206.6661792654846</v>
+        <v>206.6661643304526</v>
       </c>
       <c r="E12" t="n">
-        <v>207.7374990668592</v>
+        <v>207.7374840544067</v>
       </c>
       <c r="F12" t="n">
         <v>775977</v>
@@ -681,16 +681,16 @@
         <v>44944</v>
       </c>
       <c r="B13" t="n">
-        <v>212.7532043457031</v>
+        <v>212.7531890869141</v>
       </c>
       <c r="C13" t="n">
-        <v>218.1584730565545</v>
+        <v>218.1584574100962</v>
       </c>
       <c r="D13" t="n">
-        <v>211.3410207735371</v>
+        <v>211.3410056160307</v>
       </c>
       <c r="E13" t="n">
-        <v>211.3410207735371</v>
+        <v>211.3410056160307</v>
       </c>
       <c r="F13" t="n">
         <v>1031628</v>
@@ -781,16 +781,16 @@
         <v>44951</v>
       </c>
       <c r="B18" t="n">
-        <v>224.9759216308594</v>
+        <v>224.9759063720703</v>
       </c>
       <c r="C18" t="n">
-        <v>227.9950849650573</v>
+        <v>227.9950695014962</v>
       </c>
       <c r="D18" t="n">
-        <v>220.2037110557634</v>
+        <v>220.2036961206453</v>
       </c>
       <c r="E18" t="n">
-        <v>222.0541564148742</v>
+        <v>222.0541413542512</v>
       </c>
       <c r="F18" t="n">
         <v>2618036</v>
@@ -801,16 +801,16 @@
         <v>44953</v>
       </c>
       <c r="B19" t="n">
-        <v>215.2367095947266</v>
+        <v>215.2366943359375</v>
       </c>
       <c r="C19" t="n">
-        <v>227.0698530692755</v>
+        <v>227.0698369715986</v>
       </c>
       <c r="D19" t="n">
-        <v>212.6071238071453</v>
+        <v>212.6071087347757</v>
       </c>
       <c r="E19" t="n">
-        <v>224.9759272234472</v>
+        <v>224.9759112742152</v>
       </c>
       <c r="F19" t="n">
         <v>1235164</v>
@@ -841,16 +841,16 @@
         <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>224.2941741943359</v>
+        <v>224.294189453125</v>
       </c>
       <c r="C21" t="n">
-        <v>226.4367989976241</v>
+        <v>226.4368144021765</v>
       </c>
       <c r="D21" t="n">
-        <v>212.8505940299399</v>
+        <v>212.8506085102193</v>
       </c>
       <c r="E21" t="n">
-        <v>216.7949799523943</v>
+        <v>216.7949947010113</v>
       </c>
       <c r="F21" t="n">
         <v>755205</v>
@@ -861,16 +861,16 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>227.8489837646484</v>
+        <v>227.8489685058594</v>
       </c>
       <c r="C22" t="n">
-        <v>233.4490336630743</v>
+        <v>233.4490180292562</v>
       </c>
       <c r="D22" t="n">
-        <v>225.4628785192315</v>
+        <v>225.4628634202372</v>
       </c>
       <c r="E22" t="n">
-        <v>226.9237611014296</v>
+        <v>226.9237459046016</v>
       </c>
       <c r="F22" t="n">
         <v>2848851</v>
@@ -881,16 +881,16 @@
         <v>44959</v>
       </c>
       <c r="B23" t="n">
-        <v>229.5533599853516</v>
+        <v>229.5533447265625</v>
       </c>
       <c r="C23" t="n">
-        <v>233.9360079841164</v>
+        <v>233.9359924340055</v>
       </c>
       <c r="D23" t="n">
-        <v>225.9011533197142</v>
+        <v>225.9011383036933</v>
       </c>
       <c r="E23" t="n">
-        <v>225.9985514418113</v>
+        <v>225.9985364193163</v>
       </c>
       <c r="F23" t="n">
         <v>845655</v>

--- a/src/data/raw/ZENSARTECH.NS_data.xlsx
+++ b/src/data/raw/ZENSARTECH.NS_data.xlsx
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>210.0749206542969</v>
+        <v>210.0749053955078</v>
       </c>
       <c r="C2" t="n">
-        <v>213.4836468142072</v>
+        <v>213.4836313078253</v>
       </c>
       <c r="D2" t="n">
-        <v>209.4418774546602</v>
+        <v>209.4418622418522</v>
       </c>
       <c r="E2" t="n">
-        <v>210.2697020341184</v>
+        <v>210.2696867611814</v>
       </c>
       <c r="F2" t="n">
         <v>533417</v>
@@ -581,16 +581,16 @@
         <v>44937</v>
       </c>
       <c r="B8" t="n">
-        <v>208.0296783447266</v>
+        <v>208.0296630859375</v>
       </c>
       <c r="C8" t="n">
-        <v>209.1009832842017</v>
+        <v>209.1009679468334</v>
       </c>
       <c r="D8" t="n">
-        <v>200.043508620439</v>
+        <v>200.0434939474282</v>
       </c>
       <c r="E8" t="n">
-        <v>201.9913519949744</v>
+        <v>201.9913371790911</v>
       </c>
       <c r="F8" t="n">
         <v>1212928</v>
@@ -661,16 +661,16 @@
         <v>44943</v>
       </c>
       <c r="B12" t="n">
-        <v>211.1462097167969</v>
+        <v>211.1462249755859</v>
       </c>
       <c r="C12" t="n">
-        <v>212.3149126860149</v>
+        <v>212.314928029262</v>
       </c>
       <c r="D12" t="n">
-        <v>206.6661643304526</v>
+        <v>206.6661792654846</v>
       </c>
       <c r="E12" t="n">
-        <v>207.7374840544067</v>
+        <v>207.7374990668592</v>
       </c>
       <c r="F12" t="n">
         <v>775977</v>
@@ -681,16 +681,16 @@
         <v>44944</v>
       </c>
       <c r="B13" t="n">
-        <v>212.7531890869141</v>
+        <v>212.7532043457031</v>
       </c>
       <c r="C13" t="n">
-        <v>218.1584574100962</v>
+        <v>218.1584730565545</v>
       </c>
       <c r="D13" t="n">
-        <v>211.3410056160307</v>
+        <v>211.3410207735371</v>
       </c>
       <c r="E13" t="n">
-        <v>211.3410056160307</v>
+        <v>211.3410207735371</v>
       </c>
       <c r="F13" t="n">
         <v>1031628</v>
@@ -721,16 +721,16 @@
         <v>44946</v>
       </c>
       <c r="B15" t="n">
-        <v>212.7044982910156</v>
+        <v>212.7044830322266</v>
       </c>
       <c r="C15" t="n">
-        <v>221.5184928535278</v>
+        <v>221.5184769624489</v>
       </c>
       <c r="D15" t="n">
-        <v>211.4384119402123</v>
+        <v>211.4383967722486</v>
       </c>
       <c r="E15" t="n">
-        <v>217.7202040793856</v>
+        <v>217.7201884607848</v>
       </c>
       <c r="F15" t="n">
         <v>1412296</v>
@@ -801,16 +801,16 @@
         <v>44953</v>
       </c>
       <c r="B19" t="n">
-        <v>215.2366943359375</v>
+        <v>215.2367095947266</v>
       </c>
       <c r="C19" t="n">
-        <v>227.0698369715986</v>
+        <v>227.0698530692755</v>
       </c>
       <c r="D19" t="n">
-        <v>212.6071087347757</v>
+        <v>212.6071238071453</v>
       </c>
       <c r="E19" t="n">
-        <v>224.9759112742152</v>
+        <v>224.9759272234472</v>
       </c>
       <c r="F19" t="n">
         <v>1235164</v>
@@ -841,16 +841,16 @@
         <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>224.294189453125</v>
+        <v>224.2941741943359</v>
       </c>
       <c r="C21" t="n">
-        <v>226.4368144021765</v>
+        <v>226.4367989976241</v>
       </c>
       <c r="D21" t="n">
-        <v>212.8506085102193</v>
+        <v>212.8505940299399</v>
       </c>
       <c r="E21" t="n">
-        <v>216.7949947010113</v>
+        <v>216.7949799523943</v>
       </c>
       <c r="F21" t="n">
         <v>755205</v>
@@ -861,16 +861,16 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>227.8489685058594</v>
+        <v>227.8489837646484</v>
       </c>
       <c r="C22" t="n">
-        <v>233.4490180292562</v>
+        <v>233.4490336630743</v>
       </c>
       <c r="D22" t="n">
-        <v>225.4628634202372</v>
+        <v>225.4628785192315</v>
       </c>
       <c r="E22" t="n">
-        <v>226.9237459046016</v>
+        <v>226.9237611014296</v>
       </c>
       <c r="F22" t="n">
         <v>2848851</v>
@@ -901,16 +901,16 @@
         <v>44960</v>
       </c>
       <c r="B24" t="n">
-        <v>230.4355010986328</v>
+        <v>230.4355163574219</v>
       </c>
       <c r="C24" t="n">
-        <v>233.8170483335014</v>
+        <v>233.817063816207</v>
       </c>
       <c r="D24" t="n">
-        <v>229.3573196818124</v>
+        <v>229.3573348692073</v>
       </c>
       <c r="E24" t="n">
-        <v>232.2487871737712</v>
+        <v>232.2488025526309</v>
       </c>
       <c r="F24" t="n">
         <v>634449</v>
@@ -981,16 +981,16 @@
         <v>44966</v>
       </c>
       <c r="B28" t="n">
-        <v>248.2744140625</v>
+        <v>248.2743988037109</v>
       </c>
       <c r="C28" t="n">
-        <v>250.4307620557233</v>
+        <v>250.4307466644065</v>
       </c>
       <c r="D28" t="n">
-        <v>243.7166632354111</v>
+        <v>243.7166482567385</v>
       </c>
       <c r="E28" t="n">
-        <v>248.1273811581146</v>
+        <v>248.1273659083621</v>
       </c>
       <c r="F28" t="n">
         <v>1292936</v>
@@ -1021,16 +1021,16 @@
         <v>44970</v>
       </c>
       <c r="B30" t="n">
-        <v>246.216064453125</v>
+        <v>246.2160491943359</v>
       </c>
       <c r="C30" t="n">
-        <v>258.1250114022655</v>
+        <v>258.1249954054413</v>
       </c>
       <c r="D30" t="n">
-        <v>243.8636876255661</v>
+        <v>243.8636725125613</v>
       </c>
       <c r="E30" t="n">
-        <v>257.7819495933915</v>
+        <v>257.7819336178279</v>
       </c>
       <c r="F30" t="n">
         <v>1568132</v>
@@ -1041,16 +1041,16 @@
         <v>44971</v>
       </c>
       <c r="B31" t="n">
-        <v>251.7539825439453</v>
+        <v>251.7539672851562</v>
       </c>
       <c r="C31" t="n">
-        <v>255.8216386317242</v>
+        <v>255.8216231263948</v>
       </c>
       <c r="D31" t="n">
-        <v>241.6093253744062</v>
+        <v>241.609310730484</v>
       </c>
       <c r="E31" t="n">
-        <v>247.4902825843309</v>
+        <v>247.4902675839643</v>
       </c>
       <c r="F31" t="n">
         <v>1723090</v>
@@ -1081,16 +1081,16 @@
         <v>44973</v>
       </c>
       <c r="B33" t="n">
-        <v>260.0362854003906</v>
+        <v>260.0363159179688</v>
       </c>
       <c r="C33" t="n">
-        <v>262.6827278321936</v>
+        <v>262.6827586603553</v>
       </c>
       <c r="D33" t="n">
-        <v>252.3910537939919</v>
+        <v>252.391083414334</v>
       </c>
       <c r="E33" t="n">
-        <v>255.9686297391389</v>
+        <v>255.9686597793413</v>
       </c>
       <c r="F33" t="n">
         <v>2165385</v>
@@ -1121,16 +1121,16 @@
         <v>44977</v>
       </c>
       <c r="B35" t="n">
-        <v>265.8192749023438</v>
+        <v>265.8192443847656</v>
       </c>
       <c r="C35" t="n">
-        <v>271.4551921659524</v>
+        <v>271.4551610013386</v>
       </c>
       <c r="D35" t="n">
-        <v>255.9686537378231</v>
+        <v>255.9686243511528</v>
       </c>
       <c r="E35" t="n">
-        <v>262.8787963300262</v>
+        <v>262.8787661500319</v>
       </c>
       <c r="F35" t="n">
         <v>2617891</v>
@@ -1181,16 +1181,16 @@
         <v>44980</v>
       </c>
       <c r="B38" t="n">
-        <v>294.6359252929688</v>
+        <v>294.6359558105469</v>
       </c>
       <c r="C38" t="n">
-        <v>298.360519094533</v>
+        <v>298.3605499978943</v>
       </c>
       <c r="D38" t="n">
-        <v>275.1307589723932</v>
+        <v>275.1307874696799</v>
       </c>
       <c r="E38" t="n">
-        <v>283.0700262816271</v>
+        <v>283.0700556012412</v>
       </c>
       <c r="F38" t="n">
         <v>7247514</v>
@@ -1201,16 +1201,16 @@
         <v>44981</v>
       </c>
       <c r="B39" t="n">
-        <v>285.8144836425781</v>
+        <v>285.8145141601562</v>
       </c>
       <c r="C39" t="n">
-        <v>299.1446573073632</v>
+        <v>299.1446892482583</v>
       </c>
       <c r="D39" t="n">
-        <v>279.3454256966584</v>
+        <v>279.3454555235089</v>
       </c>
       <c r="E39" t="n">
-        <v>295.6650735312556</v>
+        <v>295.6651051006214</v>
       </c>
       <c r="F39" t="n">
         <v>3572500</v>
@@ -1221,16 +1221,16 @@
         <v>44984</v>
       </c>
       <c r="B40" t="n">
-        <v>273.9545593261719</v>
+        <v>273.95458984375</v>
       </c>
       <c r="C40" t="n">
-        <v>285.7654684342524</v>
+        <v>285.7655002675244</v>
       </c>
       <c r="D40" t="n">
-        <v>271.9942404758951</v>
+        <v>271.9942707751006</v>
       </c>
       <c r="E40" t="n">
-        <v>282.9230120837695</v>
+        <v>282.9230436004019</v>
       </c>
       <c r="F40" t="n">
         <v>2797405</v>
@@ -1261,16 +1261,16 @@
         <v>44986</v>
       </c>
       <c r="B42" t="n">
-        <v>281.9919128417969</v>
+        <v>281.9918823242188</v>
       </c>
       <c r="C42" t="n">
-        <v>287.7748481703755</v>
+        <v>287.7748170269597</v>
       </c>
       <c r="D42" t="n">
-        <v>279.9825678288539</v>
+        <v>279.9825375287301</v>
       </c>
       <c r="E42" t="n">
-        <v>285.0303834992549</v>
+        <v>285.030352652849</v>
       </c>
       <c r="F42" t="n">
         <v>1570427</v>
@@ -1281,16 +1281,16 @@
         <v>44987</v>
       </c>
       <c r="B43" t="n">
-        <v>271.0630798339844</v>
+        <v>271.0631103515625</v>
       </c>
       <c r="C43" t="n">
-        <v>283.7561564843925</v>
+        <v>283.7561884310179</v>
       </c>
       <c r="D43" t="n">
-        <v>269.5438446742934</v>
+        <v>269.5438750208288</v>
       </c>
       <c r="E43" t="n">
-        <v>281.3057578964444</v>
+        <v>281.3057895671922</v>
       </c>
       <c r="F43" t="n">
         <v>1233869</v>
@@ -1401,16 +1401,16 @@
         <v>44998</v>
       </c>
       <c r="B49" t="n">
-        <v>263.2218017578125</v>
+        <v>263.2218322753906</v>
       </c>
       <c r="C49" t="n">
-        <v>270.7690412991318</v>
+        <v>270.7690726917266</v>
       </c>
       <c r="D49" t="n">
-        <v>260.7224071875803</v>
+        <v>260.722437415382</v>
       </c>
       <c r="E49" t="n">
-        <v>267.5835231662008</v>
+        <v>267.583554189471</v>
       </c>
       <c r="F49" t="n">
         <v>1383539</v>
@@ -1501,16 +1501,16 @@
         <v>45005</v>
       </c>
       <c r="B54" t="n">
-        <v>264.64306640625</v>
+        <v>264.6430358886719</v>
       </c>
       <c r="C54" t="n">
-        <v>271.5041829427083</v>
+        <v>271.5041516339337</v>
       </c>
       <c r="D54" t="n">
-        <v>258.762109375</v>
+        <v>258.7620795355903</v>
       </c>
       <c r="E54" t="n">
-        <v>271.5041829427083</v>
+        <v>271.5041516339337</v>
       </c>
       <c r="F54" t="n">
         <v>1099244</v>
@@ -1521,16 +1521,16 @@
         <v>45006</v>
       </c>
       <c r="B55" t="n">
-        <v>267.632568359375</v>
+        <v>267.6325073242188</v>
       </c>
       <c r="C55" t="n">
-        <v>271.4061888235678</v>
+        <v>271.4061269278156</v>
       </c>
       <c r="D55" t="n">
-        <v>265.7212750756053</v>
+        <v>265.7212144763306</v>
       </c>
       <c r="E55" t="n">
-        <v>267.1424885565473</v>
+        <v>267.1424276331566</v>
       </c>
       <c r="F55" t="n">
         <v>718491</v>
@@ -1541,16 +1541,16 @@
         <v>45007</v>
       </c>
       <c r="B56" t="n">
-        <v>266.9954223632812</v>
+        <v>266.9954528808594</v>
       </c>
       <c r="C56" t="n">
-        <v>272.7783570094958</v>
+        <v>272.7783881880634</v>
       </c>
       <c r="D56" t="n">
-        <v>266.2113067852525</v>
+        <v>266.2113372132062</v>
       </c>
       <c r="E56" t="n">
-        <v>269.4458209347359</v>
+        <v>269.4458517323946</v>
       </c>
       <c r="F56" t="n">
         <v>561593</v>
@@ -1581,16 +1581,16 @@
         <v>45009</v>
       </c>
       <c r="B58" t="n">
-        <v>260.1343078613281</v>
+        <v>260.1343383789062</v>
       </c>
       <c r="C58" t="n">
-        <v>266.5053441838012</v>
+        <v>266.5053754487955</v>
       </c>
       <c r="D58" t="n">
-        <v>258.370032844557</v>
+        <v>258.3700631551598</v>
       </c>
       <c r="E58" t="n">
-        <v>261.8495868712247</v>
+        <v>261.8496175900303</v>
       </c>
       <c r="F58" t="n">
         <v>593872</v>
@@ -1741,16 +1741,16 @@
         <v>45026</v>
       </c>
       <c r="B66" t="n">
-        <v>280.47265625</v>
+        <v>280.4726257324219</v>
       </c>
       <c r="C66" t="n">
-        <v>285.226436168562</v>
+        <v>285.2264051337361</v>
       </c>
       <c r="D66" t="n">
-        <v>272.3863397606851</v>
+        <v>272.3863101229603</v>
       </c>
       <c r="E66" t="n">
-        <v>276.1109640909001</v>
+        <v>276.1109340479076</v>
       </c>
       <c r="F66" t="n">
         <v>1450083</v>
@@ -1801,16 +1801,16 @@
         <v>45029</v>
       </c>
       <c r="B69" t="n">
-        <v>274.689697265625</v>
+        <v>274.6897277832031</v>
       </c>
       <c r="C69" t="n">
-        <v>278.7573531695661</v>
+        <v>278.7573841390541</v>
       </c>
       <c r="D69" t="n">
-        <v>271.7492187935576</v>
+        <v>271.7492489844534</v>
       </c>
       <c r="E69" t="n">
-        <v>277.5321538062047</v>
+        <v>277.5321846395751</v>
       </c>
       <c r="F69" t="n">
         <v>398962</v>
@@ -1861,16 +1861,16 @@
         <v>45035</v>
       </c>
       <c r="B72" t="n">
-        <v>260.6734313964844</v>
+        <v>260.6734619140625</v>
       </c>
       <c r="C72" t="n">
-        <v>261.6045649756804</v>
+        <v>261.6045956022683</v>
       </c>
       <c r="D72" t="n">
-        <v>257.3408651616103</v>
+        <v>257.340895289038</v>
       </c>
       <c r="E72" t="n">
-        <v>259.1541662218578</v>
+        <v>259.1541965615725</v>
       </c>
       <c r="F72" t="n">
         <v>507114</v>
@@ -1921,16 +1921,16 @@
         <v>45040</v>
       </c>
       <c r="B75" t="n">
-        <v>266.701416015625</v>
+        <v>266.7013854980469</v>
       </c>
       <c r="C75" t="n">
-        <v>269.1027889341574</v>
+        <v>269.1027581417998</v>
       </c>
       <c r="D75" t="n">
-        <v>261.8496143423548</v>
+        <v>261.849584379949</v>
       </c>
       <c r="E75" t="n">
-        <v>264.6430750053863</v>
+        <v>264.6430447233359</v>
       </c>
       <c r="F75" t="n">
         <v>515934</v>
@@ -2021,16 +2021,16 @@
         <v>45048</v>
       </c>
       <c r="B80" t="n">
-        <v>278.022216796875</v>
+        <v>278.0222473144531</v>
       </c>
       <c r="C80" t="n">
-        <v>280.9136990849937</v>
+        <v>280.9137299199603</v>
       </c>
       <c r="D80" t="n">
-        <v>273.4644814222558</v>
+        <v>273.4645114395464</v>
       </c>
       <c r="E80" t="n">
-        <v>273.4644814222558</v>
+        <v>273.4645114395464</v>
       </c>
       <c r="F80" t="n">
         <v>854071</v>
@@ -2081,16 +2081,16 @@
         <v>45051</v>
       </c>
       <c r="B83" t="n">
-        <v>298.0665283203125</v>
+        <v>298.0664978027344</v>
       </c>
       <c r="C83" t="n">
-        <v>303.8004677314613</v>
+        <v>303.8004366268131</v>
       </c>
       <c r="D83" t="n">
-        <v>293.0677085795136</v>
+        <v>293.0676785737403</v>
       </c>
       <c r="E83" t="n">
-        <v>293.7048063113978</v>
+        <v>293.7047762403951</v>
       </c>
       <c r="F83" t="n">
         <v>1925975</v>
@@ -2121,16 +2121,16 @@
         <v>45055</v>
       </c>
       <c r="B85" t="n">
-        <v>299.5367431640625</v>
+        <v>299.5367126464844</v>
       </c>
       <c r="C85" t="n">
-        <v>302.8692794146856</v>
+        <v>302.8692485575801</v>
       </c>
       <c r="D85" t="n">
-        <v>294.2928839620045</v>
+        <v>294.2928539786843</v>
       </c>
       <c r="E85" t="n">
-        <v>297.2333624029237</v>
+        <v>297.23333212002</v>
       </c>
       <c r="F85" t="n">
         <v>827642</v>
@@ -2141,16 +2141,16 @@
         <v>45056</v>
       </c>
       <c r="B86" t="n">
-        <v>298.2625427246094</v>
+        <v>298.2625122070312</v>
       </c>
       <c r="C86" t="n">
-        <v>310.514537248494</v>
+        <v>310.5145054773183</v>
       </c>
       <c r="D86" t="n">
-        <v>296.3022236007878</v>
+        <v>296.3021932837854</v>
       </c>
       <c r="E86" t="n">
-        <v>301.64410517804</v>
+        <v>301.6440743144677</v>
       </c>
       <c r="F86" t="n">
         <v>1857952</v>
@@ -2181,16 +2181,16 @@
         <v>45058</v>
       </c>
       <c r="B88" t="n">
-        <v>332.76416015625</v>
+        <v>332.7641296386719</v>
       </c>
       <c r="C88" t="n">
-        <v>336.6847982729658</v>
+        <v>336.6847673958285</v>
       </c>
       <c r="D88" t="n">
-        <v>308.750251691366</v>
+        <v>308.7502233760873</v>
       </c>
       <c r="E88" t="n">
-        <v>318.5518469831554</v>
+        <v>318.551817768979</v>
       </c>
       <c r="F88" t="n">
         <v>14775091</v>
@@ -2201,16 +2201,16 @@
         <v>45061</v>
       </c>
       <c r="B89" t="n">
-        <v>376.5282592773438</v>
+        <v>376.5282897949219</v>
       </c>
       <c r="C89" t="n">
-        <v>382.0661543718941</v>
+        <v>382.066185338318</v>
       </c>
       <c r="D89" t="n">
-        <v>333.8423257728003</v>
+        <v>333.8423528306877</v>
       </c>
       <c r="E89" t="n">
-        <v>335.0184992047234</v>
+        <v>335.0185263579396</v>
       </c>
       <c r="F89" t="n">
         <v>19401965</v>
@@ -2281,16 +2281,16 @@
         <v>45065</v>
       </c>
       <c r="B93" t="n">
-        <v>346.8294372558594</v>
+        <v>346.8294677734375</v>
       </c>
       <c r="C93" t="n">
-        <v>353.3964878108841</v>
+        <v>353.3965189062981</v>
       </c>
       <c r="D93" t="n">
-        <v>339.1351793715147</v>
+        <v>339.1352092120738</v>
       </c>
       <c r="E93" t="n">
-        <v>343.9869807522162</v>
+        <v>343.9870110196862</v>
       </c>
       <c r="F93" t="n">
         <v>1939221</v>
@@ -2301,16 +2301,16 @@
         <v>45068</v>
       </c>
       <c r="B94" t="n">
-        <v>347.6135864257812</v>
+        <v>347.6135559082031</v>
       </c>
       <c r="C94" t="n">
-        <v>350.8481309624851</v>
+        <v>350.8481001609409</v>
       </c>
       <c r="D94" t="n">
-        <v>341.0955312506803</v>
+        <v>341.0955013053332</v>
       </c>
       <c r="E94" t="n">
-        <v>346.8294707325722</v>
+        <v>346.8294402838329</v>
       </c>
       <c r="F94" t="n">
         <v>1290382</v>
@@ -2381,16 +2381,16 @@
         <v>45072</v>
       </c>
       <c r="B98" t="n">
-        <v>368.9320373535156</v>
+        <v>368.9320068359375</v>
       </c>
       <c r="C98" t="n">
-        <v>377.0183533936896</v>
+        <v>377.0183222072219</v>
       </c>
       <c r="D98" t="n">
-        <v>352.3673474475783</v>
+        <v>352.3673183002098</v>
       </c>
       <c r="E98" t="n">
-        <v>354.4746844332047</v>
+        <v>354.47465511152</v>
       </c>
       <c r="F98" t="n">
         <v>5079906</v>
@@ -2501,16 +2501,16 @@
         <v>45082</v>
       </c>
       <c r="B104" t="n">
-        <v>395.4453430175781</v>
+        <v>395.4453735351562</v>
       </c>
       <c r="C104" t="n">
-        <v>401.2772738118365</v>
+        <v>401.2773047794803</v>
       </c>
       <c r="D104" t="n">
-        <v>388.2411650603482</v>
+        <v>388.2411950219606</v>
       </c>
       <c r="E104" t="n">
-        <v>396.9645782038918</v>
+        <v>396.9646088387133</v>
       </c>
       <c r="F104" t="n">
         <v>1960326</v>
@@ -2521,16 +2521,16 @@
         <v>45083</v>
       </c>
       <c r="B105" t="n">
-        <v>384.4675903320312</v>
+        <v>384.4675598144531</v>
       </c>
       <c r="C105" t="n">
-        <v>396.1805091278902</v>
+        <v>396.1804776805851</v>
       </c>
       <c r="D105" t="n">
-        <v>382.2622313052701</v>
+        <v>382.262200962745</v>
       </c>
       <c r="E105" t="n">
-        <v>396.082487188726</v>
+        <v>396.0824557492015</v>
       </c>
       <c r="F105" t="n">
         <v>1244592</v>
@@ -2541,16 +2541,16 @@
         <v>45084</v>
       </c>
       <c r="B106" t="n">
-        <v>386.6239013671875</v>
+        <v>386.6239624023438</v>
       </c>
       <c r="C106" t="n">
-        <v>394.4651768525945</v>
+        <v>394.4652391256294</v>
       </c>
       <c r="D106" t="n">
-        <v>383.5363752151347</v>
+        <v>383.5364357628725</v>
       </c>
       <c r="E106" t="n">
-        <v>387.1629770919724</v>
+        <v>387.1630382122309</v>
       </c>
       <c r="F106" t="n">
         <v>1164136</v>
@@ -2561,16 +2561,16 @@
         <v>45085</v>
       </c>
       <c r="B107" t="n">
-        <v>387.6531066894531</v>
+        <v>387.653076171875</v>
       </c>
       <c r="C107" t="n">
-        <v>394.2201877183101</v>
+        <v>394.2201566837455</v>
       </c>
       <c r="D107" t="n">
-        <v>383.3404105999796</v>
+        <v>383.3403804219138</v>
       </c>
       <c r="E107" t="n">
-        <v>387.6531066894531</v>
+        <v>387.653076171875</v>
       </c>
       <c r="F107" t="n">
         <v>1764509</v>
@@ -2621,16 +2621,16 @@
         <v>45090</v>
       </c>
       <c r="B110" t="n">
-        <v>387.8981018066406</v>
+        <v>387.8981323242188</v>
       </c>
       <c r="C110" t="n">
-        <v>396.8175587718524</v>
+        <v>396.8175899911618</v>
       </c>
       <c r="D110" t="n">
-        <v>385.3987071773982</v>
+        <v>385.3987374983384</v>
       </c>
       <c r="E110" t="n">
-        <v>388.1431416688052</v>
+        <v>388.1431722056617</v>
       </c>
       <c r="F110" t="n">
         <v>1334110</v>
@@ -2641,16 +2641,16 @@
         <v>45091</v>
       </c>
       <c r="B111" t="n">
-        <v>379.4687194824219</v>
+        <v>379.46875</v>
       </c>
       <c r="C111" t="n">
-        <v>389.4173317706172</v>
+        <v>389.4173630882812</v>
       </c>
       <c r="D111" t="n">
-        <v>375.4500598143368</v>
+        <v>375.4500900087268</v>
       </c>
       <c r="E111" t="n">
-        <v>388.290154402178</v>
+        <v>388.2901856291922</v>
       </c>
       <c r="F111" t="n">
         <v>833518</v>
@@ -2681,16 +2681,16 @@
         <v>45093</v>
       </c>
       <c r="B113" t="n">
-        <v>387.3590393066406</v>
+        <v>387.3590698242188</v>
       </c>
       <c r="C113" t="n">
-        <v>391.6717350456387</v>
+        <v>391.671765902987</v>
       </c>
       <c r="D113" t="n">
-        <v>381.1350206126317</v>
+        <v>381.1350506398586</v>
       </c>
       <c r="E113" t="n">
-        <v>387.0159775054728</v>
+        <v>387.0160079960233</v>
       </c>
       <c r="F113" t="n">
         <v>1318662</v>
@@ -2701,16 +2701,16 @@
         <v>45096</v>
       </c>
       <c r="B114" t="n">
-        <v>383.2913818359375</v>
+        <v>383.2913513183594</v>
       </c>
       <c r="C114" t="n">
-        <v>388.5352414351171</v>
+        <v>388.5352105000239</v>
       </c>
       <c r="D114" t="n">
-        <v>382.2622262685144</v>
+        <v>382.2621958328775</v>
       </c>
       <c r="E114" t="n">
-        <v>387.653103818455</v>
+        <v>387.6530729535975</v>
       </c>
       <c r="F114" t="n">
         <v>787118</v>
@@ -2761,16 +2761,16 @@
         <v>45099</v>
       </c>
       <c r="B117" t="n">
-        <v>392.9459533691406</v>
+        <v>392.9459228515625</v>
       </c>
       <c r="C117" t="n">
-        <v>410.3928111179886</v>
+        <v>410.3927792454256</v>
       </c>
       <c r="D117" t="n">
-        <v>390.1034966872555</v>
+        <v>390.1034663904327</v>
       </c>
       <c r="E117" t="n">
-        <v>406.7662088573142</v>
+        <v>406.766177266406</v>
       </c>
       <c r="F117" t="n">
         <v>1697706</v>
@@ -2801,16 +2801,16 @@
         <v>45103</v>
       </c>
       <c r="B119" t="n">
-        <v>374.5679626464844</v>
+        <v>374.5679321289062</v>
       </c>
       <c r="C119" t="n">
-        <v>384.222540108675</v>
+        <v>384.2225088044991</v>
       </c>
       <c r="D119" t="n">
-        <v>368.539987451178</v>
+        <v>368.5399574247236</v>
       </c>
       <c r="E119" t="n">
-        <v>377.4594452575485</v>
+        <v>377.4594145043895</v>
       </c>
       <c r="F119" t="n">
         <v>994730</v>
@@ -2921,16 +2921,16 @@
         <v>45112</v>
       </c>
       <c r="B125" t="n">
-        <v>374.8619995117188</v>
+        <v>374.8620300292969</v>
       </c>
       <c r="C125" t="n">
-        <v>381.2330360368978</v>
+        <v>381.2330670731431</v>
       </c>
       <c r="D125" t="n">
-        <v>373.5387782509937</v>
+        <v>373.5388086608482</v>
       </c>
       <c r="E125" t="n">
-        <v>377.0673583088961</v>
+        <v>377.0673890060129</v>
       </c>
       <c r="F125" t="n">
         <v>1305222</v>
@@ -2941,16 +2941,16 @@
         <v>45113</v>
       </c>
       <c r="B126" t="n">
-        <v>382.2621765136719</v>
+        <v>382.26220703125</v>
       </c>
       <c r="C126" t="n">
-        <v>387.5550314368274</v>
+        <v>387.5550623769561</v>
       </c>
       <c r="D126" t="n">
-        <v>375.1070246617143</v>
+        <v>375.1070546080668</v>
       </c>
       <c r="E126" t="n">
-        <v>375.9891621635582</v>
+        <v>375.9891921803355</v>
       </c>
       <c r="F126" t="n">
         <v>1496873</v>
@@ -2961,16 +2961,16 @@
         <v>45114</v>
       </c>
       <c r="B127" t="n">
-        <v>380.4488830566406</v>
+        <v>380.4489135742188</v>
       </c>
       <c r="C127" t="n">
-        <v>390.0054376570034</v>
+        <v>390.0054689411573</v>
       </c>
       <c r="D127" t="n">
-        <v>378.1455023756731</v>
+        <v>378.1455327084864</v>
       </c>
       <c r="E127" t="n">
-        <v>382.2621840145126</v>
+        <v>382.262214677544</v>
       </c>
       <c r="F127" t="n">
         <v>812817</v>
@@ -3021,16 +3021,16 @@
         <v>45119</v>
       </c>
       <c r="B130" t="n">
-        <v>388.5351867675781</v>
+        <v>388.5352172851562</v>
       </c>
       <c r="C130" t="n">
-        <v>390.5935275249081</v>
+        <v>390.593558204159</v>
       </c>
       <c r="D130" t="n">
-        <v>374.9109768589143</v>
+        <v>374.911006306376</v>
       </c>
       <c r="E130" t="n">
-        <v>380.1548357202743</v>
+        <v>380.154865579616</v>
       </c>
       <c r="F130" t="n">
         <v>1641015</v>
@@ -3041,16 +3041,16 @@
         <v>45120</v>
       </c>
       <c r="B131" t="n">
-        <v>399.9540710449219</v>
+        <v>399.9540405273438</v>
       </c>
       <c r="C131" t="n">
-        <v>417.4499240601166</v>
+        <v>417.4498922075575</v>
       </c>
       <c r="D131" t="n">
-        <v>389.3683604353068</v>
+        <v>389.3683307254471</v>
       </c>
       <c r="E131" t="n">
-        <v>390.1034800585327</v>
+        <v>390.1034502925814</v>
       </c>
       <c r="F131" t="n">
         <v>7960994</v>
@@ -3101,16 +3101,16 @@
         <v>45125</v>
       </c>
       <c r="B134" t="n">
-        <v>441.0227355957031</v>
+        <v>441.0227661132812</v>
       </c>
       <c r="C134" t="n">
-        <v>444.6493074416126</v>
+        <v>444.6493382101396</v>
       </c>
       <c r="D134" t="n">
-        <v>421.5175395352284</v>
+        <v>421.5175687030999</v>
       </c>
       <c r="E134" t="n">
-        <v>432.2013009636822</v>
+        <v>432.201330870841</v>
       </c>
       <c r="F134" t="n">
         <v>3727504</v>
@@ -3141,16 +3141,16 @@
         <v>45127</v>
       </c>
       <c r="B136" t="n">
-        <v>452.6866455078125</v>
+        <v>452.6866760253906</v>
       </c>
       <c r="C136" t="n">
-        <v>465.5757362229342</v>
+        <v>465.575767609422</v>
       </c>
       <c r="D136" t="n">
-        <v>426.4673803626262</v>
+        <v>426.4674091126495</v>
       </c>
       <c r="E136" t="n">
-        <v>448.9620216707736</v>
+        <v>448.9620519372585</v>
       </c>
       <c r="F136" t="n">
         <v>10302439</v>
